--- a/500all/speech_level/speeches_CHRG-114hhrg95517.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95517.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="238">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400380</t>
   </si>
   <si>
-    <t>Christopher H. Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Smith. Good morning, and the hearing will come to order.    And we thank all of you, especially all of the left-behind parents I see in the audience--and there are many--for joining us this morning to discuss how the U.S. Department of State's first annual report under the Sean and David Goldman International Child Abduction Prevention and Return Act can better correspond with the mandate set by Congress and achieve the return of abducted American children, which is the ultimate objective of the Goldman Act.    Every year, as we know, an estimated 1,000 American children are unlawfully removed from their homes by one of their parents and taken across international borders. As many of you know all too well, international parental child abduction rips children from their homes and families and whisks them away to a foreign land alienating them from the love and care of the parent and family left behind.    Child abduction is child abuse, and it continues to plague families across the United States and across the world. For decades, the State Department has used quiet diplomacy to attempt to bring these children home. But we know that less than half of these children ever come home, even from countries that have signed the Hague Convention on the Civil Aspects of International Child Abduction.    In a hearing I held on this issue back in 2009, former Assistant Secretary of State Bernie Aronson called quiet diplomacy ``a sophisticated form of begging.'' Thousands of American families, still ruptured and grieving from years of unresolved abductions, confirm that quiet diplomacy is gravely inadequate.    Last year, Congress unanimously passed the Goldman Act to give teeth to requests for return and for access. The actions required by the law escalate in severity and range from official protest through diplomatic channels to extradition to the suspension of development, security, or other foreign assistance.    The Goldman Act is a law calculated to get results, as we did in the return of Sean Goldman from Brazil in late December 2009. But the new law is only as good as its implementation. The State Department's first annual report that we are reviewing today is the first step in moving past quiet diplomacy to results. The State Department must get this report right in order to trigger the actions above and for the law to be an effective tool.    Countries should be listed as worst offenders if they have high numbers of cases--30 percent or more--that have been pending over a year, or if their law enforcement, judiciary, or central authority for abduction regularly fail in their duties under the Hague Convention or other controlling agreements, or if the country simply fails to work with the United States to resolve cases.    Once these countries are properly classified, the Secretary of State then determines which of the aforementioned sanctions the United States will apply to the country in order to encourage the timely resolution of abduction and access cases.    While the State Department has choice on which tools to apply, and can waive actions for up to 180 days, the State Department does not have discretion over whether to report accurately to Congress on the country's record or whether the country is objectively non-compliant.    As we have seen in the human trafficking context--and I would note parenthetically I authored the Trafficking Victims Protection Act of 2000 as well as the Goldman Act--accurate accounting of a country's record, especially in comparison with other countries, can do wonders to prod much-needed reform. Accurate reporting is also critical to family court judges across the country, and parents considering their child's travel to a country where abduction or access problems are a risk.    The stakes are high. Misleading or incomplete information could mean the loss of another American child to abduction. For example, a judge might look at the report table filled with zeroes in the unresolved cases category, such as is the case with Japan, and erroneously conclude that a country is not of concern, giving permission to an estranged spouse to travel with a child for a vacation.    The estranged spouse then abducts the child, and the left-behind parent spends his or her life savings and many years trying to get the child returned to the United States, all of which could have been avoided with accurate reporting on the danger.    I am very concerned that the first annual report contains major gaps and even misleading information, especially when it comes to countries with which we have the most intractable abduction cases. For example, the report indicates that India, which has consistently been in the top five destinations for abducted children, has 19 new cases in 2014, 22 resolved cases, and no unresolved cases. However, we know that from the National Center for Missing and Exploited Children that India has 53 open cases, and that 51 have been pending for more than 1 year.    While the State Department has shown willingness to work constructively on making the report better, for example, meeting last week with our staff, our June 11 hearing left many questions unanswered as to why this report failed to hold countries accountable for unresolved cases.    We wrote the law with the belief that the State Department was formally raising these cases by name, with the foreign ministries of destination countries, and asked that cases still pending for 1 year after being raised would be counted as unresolved. But these cases were not included in the report.    A few parents who reported their cases to the State Department years ago, and who have consistently been asking the Department for help, were told by their case officers recently that the cases were formally communicated to India in May 2015. May 2015. Clearly, delay is denial. They thought that that was not the case.    The Goldman Act also requires that the State Department take actions against countries, such as India and Japan, if they refuse to resolve abduction and access cases. The Goldman Act requires the State Department to bring negotiations with countries like India and Japan for a bilateral agreement to secure resolution of the more than 100 open cases we have pending with those two countries, cases that are not listed as unresolved in the report.    The Goldman Act requires an end to the status quo, but the first step to change is telling the truth in the report, which is why I am so concerned that Japan was not listed as showing a persistent failure to work with the United States on abduction issues. Japan has never issued and enforced a return order for a single one of the hundreds of American children abducted there. It holds the world record on the abduction of American children never returned. And yet it got a pass on more than 50 known open cases, most of which have been pending for 5 years or more.    Among those cases is that of Sergeant Michael Elias, who has not seen his children, Jade and Michael, since 2008. Michael served as a Marine who saw combat in Iraq. His wife, who worked in the Japanese Consulate, used documents fraudulently obtained, with the apparent complicity of the Japanese Consulate personnel, to kidnap their children, then aged four and two, in defiance of a court order telling Michael on a phone call that there was nothing that he could do. And she said, ``My country''--that is, Japan--``will protect me.''    Her country, very worried about its designation in the new report, sent a high-level delegation to the United States in March to meet with Ambassador Jacobs, our distinguished witness, who will lead off today's hearing, and explain why Japan should be excused from being listed as non-compliant, despite the fact that more than 1 year after signing the Hague Convention on the Civil Aspects of International Child Abduction Japan has ordered zero returns to the U.S.    Just before the report was released in May, 2 weeks late, Takashi Okada, Deputy Director of the Secretariat of the Ministry of Foreign Affairs, told the Japanese Diet that he had been in consultation with the State Department and, ``Because we strive to make an explanation to the U.S. side, I hope that the report contents will be based on our country's efforts.''    In other words, Japan understood it could get a pass potentially from the United States and escape the list of countries facing action by the U.S. for their failure to resolve abduction cases based on what Mr. Okada euphemistically referred as ``efforts,'' not concrete results.    Sergeant Michael Elias' country has utterly failed to protect him. He has seen zero progress, and I traveled to Japan myself with Michael's mother. And the idea there was, as she had a very close relationship with her daughter-in-law, that at least the grandmother of those children might have access, and we utterly failed during that trip to garner any kind of access, contact, and certainly no action on returning his children.    The Goldman Act is clear. All results for return that the State Department submitted to the Foreign Ministry and that remain unresolved 12 months later are to be counted against Japan and followed up with action. The Goldman Act has given the State Department new and powerful tools to bring Japan and other countries to the resolution table.    The goal is not to disrupt relations but to heal the painful rifts caused by international child abduction. The question still remains: Will the State Department use the Goldman Act as required by law?    I would like to yield to my good friend and colleague, Mr. Cicilline, for any opening comments he might have.</t>
   </si>
   <si>
     <t>412470</t>
   </si>
   <si>
-    <t>David N. Cicilline</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cicilline. Thank you, Mr. Chairman. I want to begin by thanking you for your leadership and for calling today's hearing on the Goldman Act to Return Abducted American Children: Ensuring Accurate Numbers and Administration Action, to give us an opportunity to discuss the disturbing increase of child abduction cases in recent years and examine how the Obama administration has been able to implement the very important provisions of the Goldman Act in order to ensure that all children that call the United States home are able to return.    I would also like to thank our distinguished witnesses for today's hearing that includes advocates, government officials, and, most importantly, parents that have been personally affected by international parental abductions.    I look forward to hearing each of your perspectives based on your expertise and personal experiences in this area, including your assessment of what more should be done to successfully implement the Goldman Act and how Congress can assist with effective implementation moving forward.    According to the State Department, approximately 1,000 children are victims of international parental abduction every year. It is important to note, however, that in recent years there has been a significant increase in the number of American children being abducted. This sharp increase in abductions is a grim indicator that while globalization has brought innumerable benefits to us all, the ease of international travel has had a negative impact on the number of parental abductions that occur.    For example, over 300 U.S. children have been abducted to Japan since 1994. And despite Japan's ratification of the Hague Convention on the Civil Aspects of International Child Abduction in 2014, many of these cases would not fall under the Convention as the ratification does not have retroactive power.    I look forward to hearing how the administration is working to bring all abducted children back, not only from Japan but from other countries with high numbers of abducted U.S. children, including India and Brazil. And I am very pleased that we have witnesses that can speak to their personal experiences dealing with abducted children in those countries as well.    I am proud to say that Congress has been quite active in this area of the law, with strong bipartisan support throughout. In December 2013, the House unanimously passed H.R. 3212, the Sean and David Goldman International Child Abduction Prevention and Return Act. This bipartisan support shows how committed this body is to ensuring that children are protected and that their welfare remains a top priority.    The Goldman Act provides a range of steps that the administration can take depending on the severity of the situation, from a petition through diplomatic channels to more serious actions like the withdrawal of foreign assistance or a formal request for extradition.    I look forward to hearing from our witnesses representing the administration on how effective these strategies that are outlined in the act have been in the short period of time since its enactment.    I will close by saying that we all have a personal stake in protecting those that are most vulnerable in our society. The welfare of our youngest citizens is of utmost importance, and I look forward to working with my colleagues here on the Hill and with the Obama administration to ensure that all children remain safe and in the custody of those that have been awarded that privilege.    And, again, I thank our witnesses, and thank the chairman, and yield back.    Thank you.</t>
   </si>
   <si>
@@ -283,9 +277,6 @@
     <t>412552</t>
   </si>
   <si>
-    <t>Mark Meadows</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Meadows. Thank you, Mr. Chairman.    Madam Ambassador, welcome back.    Ambassador Jacobs. Thank you, sir.</t>
   </si>
   <si>
@@ -433,9 +424,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Royce</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Royce. Thank you, Mr. Chairman. I will just take a moment here and thank you for your years of advocacy on this issue. It is good to see Ambassador Jacobs here, and I hope, really, that this hearing will help improve the reporting that this new law requires from her office. And, in particular, accurate data on unresolved abduction cases is essential to enabling American parents and judges to make informed decisions about whether to allow children to travel to particular countries in order to avoid new abduction cases.    I also want to welcome all of our left-behind parent witnesses, including Kelly Rutherford, whose case I have raised previously with the State Department. We cannot help but feel the trauma that all of you endure while separated from your daughters and your sons. And, Kelly, all of us here are so pleased that you have been reunited with your children for the summer. We continue to hope for a permanent resolution for your family.    Before yielding back, I also would like to submit for the record a written statement by Sarah Kurtz, a resident of Los Angeles, who is enduring a painful separation from her two children who are currently in Sweden.    And I am grateful to the subcommittee, again, but also to the State Department, and our brave witnesses, for coming together today to shine a very personal light on these very tragic separations which must be mended.    Thank you again, Mr. Chairman.</t>
   </si>
   <si>
@@ -448,51 +436,33 @@
     <t xml:space="preserve">    Mr. Smith. We are also joined by a good friend of mine from the State of New Jersey, Leonard Lance.</t>
   </si>
   <si>
-    <t>Lance</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lance. Thank you, Mr. Chairman. Certainly, this is a very important issue, and I commend your leadership on this, your leadership over many years. And among the panelists, I welcome Ms. McGee , who is from the part of New Jersey that I have the honor of representing. This is an issue that demands the attention of the full Congress of the United States.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
-    <t>Apy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Apy. It is my privilege to return to discuss ICAPRA and to discuss the reporting requirements. My purpose today is to review and articulate, first of all, the importance of the report, the current deficiencies in the existing report, and the necessity to address those deficiencies as a matter of urgency in order to aggressively combat international child abduction by encouraging a report which will become the authoritative source of objective evidence to assess obstacles to recovery of all children.    The focus of this act is two-fold. The first is prevention, which is of course one of the most important aspects of preventing the scourge of child abduction. This is the only report that is internationally issued with regard to accurate numbers involving child abduction.    Secretary General Bernasconi at the Hague has at least twice formally indicated that the Hague doesn't have the resources, does not have accurate information, is not provided information by countries. So much like the Trafficking in Persons Report, this is going to be not just the report that is looked at for prevention purposes by those in the United States of America, by those of you who legislate, by the diplomats who are addressing these issues, but of course by American judges, by American lawyers, by parents, in making determinations with respect to the resolution of their international custody agreements.    If you don't have accurate information, then you don't know that there is a risk. In my written remarks, I have outlined the way that those of us who do this work assess the risk of abduction. And it is a matrix, and I have talked about this before before this subcommittee. It is a matrix of the individual attributes of the litigants and the obstacles to recovery.    And the way that the obstacles to recovery are assessed is by looking at the objective information regarding whether or not there is a likelihood that a country is going to return a child who has been wrongfully removed or retained.    Now, I listened carefully to Ambassador Jacobs, and I was concerned in that one of the things when you, I believe it was Mr. Cicilline, who asked about the non-compliance process and that definition. And the Ambassador returned to the compliance assessment that preceded the current law.    What used to happen--and, again, this is more definitively addressed in my written remarks, what used to happen is the State Department would subjectively review, as she recounted, the judicial performance, law enforcement performance, and whether or not there is a central authority. That is no longer the way, or at least it is not the exclusive way, under the law that we are looking, in terms of oversight today.    And the point was that it was too subjective a mechanism to enable judges or lawyers or anyone else to accurately tell whether or not a country was or was not in compliance. So the new law made the requirement to be that of objective numbers. Tell us how many cases there are. Tell us how long they have been there.    Give us the objective criteria, so that anyone looking at the report, not just those who are perhaps on the telephone--and we have heard about transparency--anyone can pick up the report, including a judge, including a diplomat, including a legislator, and know whether or not there is a problem.    I recounted in my written remarks two cases, focusing on two particular countries. I did that because I could testify about specific cases that were not represented in the report. The United Arab Emirates is a country with which we have great diplomatic relationships. They are our partners in fighting terrorism in the region. I work with them consistently, and it is reported that there are no pending cases.    There is no question that there is a pending case. There is no question that there is a case in which there have been criminal indictments issued by the United States Attorney for the return of Gabrielle Dahm. There is no explanation provided for why that case is not reflected.    The other issue I would like to point out--and, again, my written remarks go into more detail, but--and we have been talking about Japan. Let me limit my remarks to Hague cases, because the response that the Ambassador gave was that the reason for the designation of no cases had to do with the pre-Convention cases.    Presume for the moment that that is the case. Let me address the cases that are in being since the Hague has been passed, many of which involve parents desperate, who have been willing to forego the return applications in favor of access applications. The access applications--first of all, in many cases, the Japanese insisted that those return applications be withdrawn if they were going to work the access cases. Let us begin with that.    You have no choice. You want to see your child; this is the way. There has been no case under the Hague in which there has been a judicial submission resulting in any type of access whatsoever. Twenty-nine cases are listed as having been delayed in some way as if these parents who have been working day and night somehow delayed the prosecution of their cases.    They haven't been worked, and yet the number of cases is zero. Using not the test that was testified to by Ambassador Jacobs, but using the test in this act, there is no question that Japan is non-compliant. No question. And, in fact, the narrative does nothing but create a question.    If I am before a judge talking about someone going to Japan for vacation, and the judge asks me, ``Is Japan compliant?'' I have to say yes. I have to say yes. That is what the information provided by what the authoritative--and this is evidential for those of us who are lawyers--source in the world says.    So the very first thing that I would say is that all of this act is dependent upon the report. If the report isn't right, the rest of the remedies, the way it is treated diplomatically, the way it is treated in the Embassies, the way it is treated at the borders, falls apart.    Those are my preliminary remarks, and I am prepared to address any questions that anyone may have with respect to the specifics of either the issues that have been raised or testimony.    I would also mention, there was a question I believe by Mr. Meadows with respect to what type of actions were taken to go through these definitions. And I am speaking on behalf of myself, but I am a member of the American Bar Association's Family Law Section, and have been for many years, and I am member of course of the International Academy of Matrimonial Lawyers. Neither group that I know of was consulted.    I know our working groups on international law were not consulted, and have worked on these issues day and night, as part of our normal professional practices, to walk through why, for example, you would never remove a custody application in a non-Hague case. Please understand, there is no ability to seek the return of a child in a non-Hague case if you do not have the right to determine the child's place of residence. It is the only way to seek the remedy.    To exclude those cases without any explanation is simply to lower the numbers. And, again, I heard the Ambassador talk about the revision of the report as there having been mistakes. I am hoping that that is genuinely the motivation for lowering those numbers as opposed to being forced to address certain of the actions. And, again, there is tremendous discretion in the act.    But the part that I am concerned about is there seems to be a lack of understanding of how important these numbers are outside of just the acts that are associated with the law. It is important in the way that NGOs, in the way that those of us who deal with human rights are able to have discourse with accurate, credible evidence. And the lack of concern about getting these numbers right before the report was issued is stunning to me.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Ms. Apy, thank you very much.    Before we go into Mr. Collins, let me welcome Sheila Jackson Lee, the gentlelady from Texas.</t>
   </si>
   <si>
-    <t>Jackson Lee</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Jackson Lee. Mr. Chairman, let me thank you, and to the chairman of the full committee, ranking member, and all of the witnesses, I will take just a moment to say that I am committed to this issue with every ounce of my abilities. I have been appalled at some of the stories, even in spite of this bill that we worked so hard to pass.    And I think this hearing with Chairman Smith, who has listened to stories along with me, and let me welcome Ms. Rutherford and the other witnesses who have painfully indicated, that this is not about paper or legislative proudness or the fact that a good bill is trying to do a good thing. It is about the passion and love that a parent has for their children and one where they deserve to be able to express that love and affection.    I would just yield back, Mr. Chairman, and say that however we can make the effective tool that the State Department uses to be an effective tool, I think that is what our challenge should be. American citizens should be able to look to their government for relief, even in spite of some of the unusual procedures of our foreign neighbors.    And, with that, let me yield back and commit myself to working on this issue continuously.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Thank you.    Mr. Collins.</t>
   </si>
   <si>
-    <t>Collins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Collins. Chairman Smith, Chairman Royce, and committee members, thank you for the opportunity to share my story regarding international parental abduction to Japan. Reiko Nakata Greenberg and I were married on September 1, 2000, and on 03/03/03 at 3:03 p.m., my first and only child Keisuke Christian Collins was born in Orange, California.    In March 2008, we started the process of a divorce, and I needed to get my financial records together. I found monthly checks written by Reiko to her Japan Airlines credit card for almost 2 years. Through these cash advances on her personal credit card, and withdrawals from our home equity line, she secretly was able to build a nest egg for herself of over $220,000.    With this new evidence, I went to court in 2008 to stop Reiko from taking Keisuke to Japan for the summer. The judge ruled ``Minor child not to be removed from the County of Orange, State of California, or the United States of America, and turn over the minor's passports to the Japanese Embassy within 24 hours.''    I relayed the court's ruling to the Japanese Embassy in Los Angeles that afternoon. They replied, ``We don't care about your court orders. We won't take the passports. They are Japanese citizens, and they can do what they want.'' I said my son was born and raised in the United States and is a U.S. citizen. He said, ``I don't care.''    Two days later was Father's Day. I picked up Keisuke in the morning for church. We had a Father's Day lunch and spent the afternoon at his favorite place, the Discovery Science Zone. Afterwards, I said, ``Thanks for spending Father's Day with me, Keisuke. I love you. See you tomorrow.'' He said, ``Love you, too, Daddy.'' Those were the last words I heard from my son. That was 2,586 days ago today.    On June 16, 2008, in violation of my court orders, and with the help of her father, Ken Nakata, a retired international pilot with Japan Airlines, Reiko bypassed the system, was able to kidnap Keisuke, and flee to Japan. Reiko Nakata Greenberg Collins has warrants for her arrest by the Orange County Sheriff's Department, is on the FBI's Most Wanted List for Parental Kidnappings, and has a Red Notice issued by Interpol.    Even with these Federal and international warrants in place, the State Department says it can do nothing. I believe it can; it just chooses not to.    Three and a half years later, I was notified that Reiko filed for full and physical legal custody in Japan. In my reply I supplied the restraining order, final divorce decree which awarded me full physical and legal custody, and proof of U.S. jurisdiction of this case. The Japanese court replied by disregarding my final divorce order, stole jurisdiction, and ruled my restraining order, which stated, ``Minor child not to be removed from the County of Orange, State of California, or the United States of America'' was too vague. What word in that sentence is vague? Nothing.    As the Japanese family courts have proven time and time again, they have a bias against Americans. I will call it for what it is: Racism. My case, and the 70 cases listed with BAC Home, occurred prior to Japan becoming a Hague signatory, and, by definition under the Goldman Act, are abduction cases.    To date, children are collectively trapped in Japan and cut off from us. These cases are not resolved, yet the State Department's ICAPRA compliance report unilaterally, and without explanation, decided to downgrade all of them to access cases. To say the ICAPRA report is an insult and a slap in the face of every parent of an abducted child is an understatement.    The numbers do not add up in any way you try, but create an ever-bigger problem as a grossly inaccurate report gives potential abducting parents ammunition to go to court, show any judge that Japan is compliant with the Hague, and nothing can be further from the truth.    With no American child ever being returned by the Japanese Government, nor any ruling in favor of the victimized parent ever enforced by a Japanese court, Japan is non-compliant. Even using State's own numbers, as ridiculous and as ludicrous as they are, Japan is still 57 percent non-compliant, which is greater than the 30 percent Goldman Act standard. Japan is unequivocally non-compliant. Period.    Japan's compliant rating in the report is highly suspect after the recent testimony of the Japanese Diet on May 14 where Takashi Okada, Deputy Director General, and the Secretariat of the Ministry of Foreign Affairs said, ``I think I received Ambassador Jacobs' understanding about how our country has been dealing with the issue of the Hague Convention. The report has not yet been released. As I explained earlier to the Diet members, because we strive to make an explanation to the U.S. side, I hope that the report contents will be based on our country's efforts to deal with the issue.''    The ICAPRA report is not to take into account what Japan tells the Ambassador its efforts are. The report is to be compiled based on facts and results. There are no facts to support Japan as compliant.    For anyone to make any sort of assurance or to accept Japan's explanation, to give it a favorable rating in the report, is outrageous. This report must be amended to show Japan as non-compliant. Over 400 abduction cases to Japan have been registered with the State Department since 1994, and no child has ever been returned by the Japanese Government.    We have suffered years of secrecy from State regarding our abducted children. It is the perfect definition of insanity--doing the same thing over and over again but expecting a different result. The results have not changed in 7 years. We are still no closer to seeing our children today than we were before Japan joined the Hague Abduction Convention. So State's actions, or in this case inactions, speak so loudly we can't hear what they are saying anymore.    I would like this subcommittee to insist that OCI and the State Department be far more transparent with Congress and with victimized parents. We deserve answers. Simply telling the subcommittee that we are raising our cases means nothing. Are they demanding the return of our children or simply begging? Do they drop the issue just because Japan tells them it is too difficult to return our kidnapped children? What are the answers they are receiving?    It is time to start holding Japan accountable. Public condemnation, implementation of sanctions as outlined in the Goldman Act, and the demand that we have access to and the return of our American children immediately. My son, Keisuke Christian Collins, deserves his father, and I deserve my son.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Thank you very much.    Ms. Rutherford.</t>
   </si>
   <si>
-    <t>Rutherford</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Rutherford. Thank you all for being here today. It is wonderful to see your faces and to hear the questions that you asked Ambassador Jacobs. And I know each one of you really believes in this, and it gives us all a lot of hope. I really, really appreciate it.    I would like to thank all of you, Chairman Ed Royce, Chairman Smith, Ranking Member Bass, Congresswoman Sheila Jackson Lee, who has worked on educating the public about my ordeal, and the distinguished members of the subcommittee, and these other gentlemen who I am just meeting today.    Thank you for the opportunity to address you today regarding international parental child abduction, or IPCA, and my ordeal as a parent separated from her children, and my commitment to getting my children back or to stay in this country, and working to educate judges and advocating on behalf of other parents.    My name is Kelly Rutherford, and I am U.S. citizen. My children were born in this country and are American citizens as well. They only hold U.S. passports. In 2012, at the ages of two and five, my children were ordered by a California Judge, Teresa Beaudet, to leave the United States and reside in France and Monaco, two countries where my children do not have citizenship and where they had never lived before.    My kids are here with me in the United States for 5 weeks this summer, and I would like to say I had to go to Monaco to have them give me that, because in my country no one seems to be claiming jurisdiction for my American children, including California, even though they sent them there.    They are currently required to return to Monaco 5 weeks from now, in August. I am testifying here in the hopes that you can help them and similarly situated children to remain in the United States.    If someone had told me when my children were born, which were the two most beautiful days of my life, that one day my children would be ordered by an American judge to leave the United States and live in a foreign country, I would have not believed it. I never thought that what has happened was possible in this country, and there are fellow Americans that come up to me on a daily basis expressing the same disbelief.    In 2008, my ex-husband and I both filed for divorce. We agreed at the time that California would have jurisdiction over the case, even though none of us were living in California at the time. I was under contract in New York to do Gossip Girl. I have since come to doubt whether it was proper for California to handle the case, because nobody in our family had lived there for a long time before the divorce was filed.    My ex-husband made no dispute over money as neither one of us sought support of any kind. The only dispute was over which parent would have primary custody. I assumed it would be me, because I had been the children's primary caregiver throughout their lives. This issue became an international controversy after my ex-husband left the United States before the custody decision was made, and then claimed, through his attorney, that he was unable to return to this country because his work visa had been revoked.    In support of that claim, my ex-husband gave the court a photocopy of a forwarded email that appeared to have been sent to him from the U.S. Embassy in Berlin. The judge took no steps to authenticate the email or contact Federal officials to determine whether the information was true, even though the email contained many irregularities. For example, it was signed by the U.S. Consulate in Berlin, and there is no Consulate in Berlin. There is only an Embassy.    The email also contained no date of visa issuance or visa revocation, both of which are required under Federal law. Despite the email's questionable authenticity, the judge accepted the documents as evidence, and based on that email alone, ruled that my children must leave their own country and reside with their father abroad.    For reasons that remain unclear today, to this day, the judge never asked my ex-husband why he needed a visa to enter the United States, given that he was a German citizen and Germans come to this country every day on passports alone for months at a time. Surely, my ex-husband could have exercised his parental rights in America by coming here on his passports as he did during our marriage, and just as I have used my U.S. passport to travel to France and Monaco over 70 times since 2012 to see my children.    By forcing my kids to leave the United States, the judge ignored my children's rights to live in their own country as granted by the Supreme Court's 1967 decision of Afroyim v. Rusk. And because my children were made to live in a country where they had no citizenship, the judge effectively rendered them nationless, because, as an expert witness explained to the California court, many countries, including Monaco, have provisions in their laws that allow them to reject American court orders and American law generally.    After living in Monaco for a period of time, my children were declared habitual residents of Monaco, subject only to the laws of Monaco. They have now lived there for 3 years. They said it was temporary. Under the UCCJEA, the habitual residence of a child, and not the child's citizenship, determines where they live. Though legal experts tell me that this aspect of the UCCJEA may be unconstitutional as habitual residency cannot trump U.S. citizenship. One of the things that I argued in court was that I would be willing to take the kids to see their Dad in Monaco and France every holiday and all summer until he figured out whatever his work visa situation was. And that was ignored, because then we wouldn't have this problem to begin with, because they would have stayed in their own country.    The judge said that even though the visit to France and Monaco was temporary that if my ex-husband did not obtain a new visa the children would automatically return to this country. I saw that ruling as a hopeful sign that, worst-case scenario, my children would return home in a year or so, either with their father, if he obtained a new visa, or without him, if he did not.    Much to my shock, when I returned to the California court in 2014 to ask that my children be ordered to come home because Max has done nothing to obtain a new visa, a fact that I confirmed through the State Department in 2014, the court denied my request and ruled that it had no authority to address my ex-husband's immigration efforts.    The court then questioned whether it even had jurisdiction anymore, given that nobody had lived in California for many years. This was a curious statement, considering that I had asked that the California court previously to relinquish jurisdiction said that the case would be handled in New York. This is before they were sent there. So we agreed to California jurisdiction because the California court refused to allow me to move the case to New York.    So here I was forced to litigate the case in California, which sent my children away in 2012, but it was now claiming it had no jurisdiction to fix the problem it had caused, and to this day that remains the same.    After that 2014 California ruling, I tried to have the children file their own case in the New York Federal Court, hoping the Federal Government would bring my children home, but that was unsuccessful as well, though we are now asking the Supreme Court to review the decision.    I went to Monaco earlier this year to object to jurisdiction there, and I went back to California again last week asking for the return of my children, but that California judge stated that if I don't live in California, he can't exercise jurisdiction for any purpose, including bringing the children home to America.    This case has developed a very strange legal vacuum where nobody in this country appears willing or able to do anything to help my American children home, bring them home, even though this is the country that sent them away. I can only see this as a legal kidnapping by a California judge, forcing my children to live abroad for so long that the other country seized control over their lives.    How could this be happening? I ask myself. I just ask each of you here today how it is possible that two American citizens have been ordered by their own Government to live in exile in a foreign country. I assume that many of you may have children, and can you only imagine a judge ordering you to put your 2-year-old child on a plane and sending them to live in a foreign country?    There are lots of great countries in the world, and I have traveled to Monaco many times. It is a beautiful, interesting place. But among the wonderful things about this country is that people have a right to choose whether to live here. My children did not choose to leave their own country. I and their court-appointed attorney in California chose for them to remain in the United States.    When they reach the age of maturity, if they want to live abroad, they can do so. Or if both parents make a private family decision to raise their children abroad, they can also do so. But my children are too young to make such a serious decision, and this was not a private family matter. This was a court order commanding my American children to leave the United States.    Congress could fix this problem and help many children and many others simply by codifying what the United States Supreme Court said in 1967, that ex-patriation can never be ordered by any court because choosing to live abroad is an individual right, not a government power. The Supreme Court explained in Afroyim that no right is more fundamental than American citizenship. So I ask all of you here today, aren't my children American citizens?    On behalf of my children, and all American children affected by similar court rulings from family courts all across the country, please do all that you can to make sure that no child is ever forced to leave this wonderful country.    Thank you very much.    [Ms. Rutherford did not submit a prepared statement.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Ms. Rutherford, thank you so very much for your testimony.    Dr. Rahman.</t>
   </si>
   <si>
-    <t>Rahman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Rahman. I would like to thank Chairman Smith and Mr. Meadows, Ms. Jackson Lee, and other members of the subcommittee, and my representative Congressman Eliot Engel, for giving me this chance to testify.    My name is Dr. Samina Rahman, and I am Abdallah's mother. I am a resident of New York and a citizen of Bangladesh. Today, I will be Abdallah's voice. I will address the human rights violations, crimes, and injustice he and tens of thousands of American children are the silent victims of for decades.    In brief, Abdallah, who is a U.S. citizen by birth, and whose habitual residence is Westchester County, New York, was abducted to India by his own father, Salman Khan, a non-resident Indian citizen, or NRI, who never lived in India prior to seeking a safe haven there in April 2013.    In April 2013, after years of abuse, neglect, and his multiple declarations of divorce, I finally informed my husband that I agreed for divorce. Despite Shariah law, which would grant me sole custody, I promised him shared custody, to be fair to him, to which he responded, ``There is no such thing as shared custody. I will never share my son.''    Later, however, he cried in remorse, and he said he wished to reconcile. I gratefully agreed. A few days later, he announced he was going to Florida to visit his older sister, Arshi Khan. She had ex-communicated me in 2011 after she physically assaulted me and threatened to break my legs and my son's legs and ordered my husband to divorce me and throw me on the street. As a resident training physician, I worked 6 days a week, so I could not have accompanied them to Florida anyway.    Four days later, on the day my son and my ex were expected to return to New York, I received a text message from a United Arab Emirates cell phone number, ``We are in Dubai.'' Two days later, my husband ended all contact with me abruptly. His parents and other siblings, who live only a mile away from my parents' home in the United Arab Emirates, refused to answer my, my parents, and my sister's many phone calls on their many phone numbers. Arshi Khan did not answer any of my calls either.    At a complete loss, I filed a complaint with the Mount Vernon Police Department. They made a phone call to Arshi Khan and asked her if she knew her brother's whereabouts. She said she had no clue. Her lawyer later admitted to the FBI that she had purchased one-way Delta Airlines plane tickets to Dubai for her brother and my son.    However, the very next day, after this call from the police, my husband reestablished contact with me. He claimed I was having an affair and that is why he had to leave me, to protect my son from my immoral ways. He informed me that he had moved to India permanently. I later found out that he had also emailed my employers, my residency program directors, that all my certificates were fake and that I should be fired and deported.    I made many desperate calls at that time, to domestic violence hotlines, the FBI, the NCMEC, the Indian Consulate in New York, the Indian Embassy in Washington, and the United States Department of State. They all advised me to take my matter to family court. My parents then retained a New York lawyer for me, and we petitioned the Westchester County Family Court, since that was my son's habitual residence. However, my ex, despite being duly served, refused to appear in court even via phone, and instead simultaneously initiated custody proceedings in his local district court of Jhansi, India, where he claimed that I was an immoral woman who had abandoned my son and my husband.    My parents then hired a lawyer for me in India on the recommendation of a close friend of theirs in the UAE. My parents, like me, have never lived in India. On the basis of clear death threats, which my husband had made against me and my father, which I had recorded from a Skype video call in May 2013, the Supreme Court of India issued a 3-month stay order on the Jhansi court proceedings, on the district court proceedings.    However, 9 months later, that same Supreme Court of India refused to acknowledge that my son was abducted and ordered that I file a petition for a child custody case in a lower court of the State of Uttar Pradesh, which is a part of the world I have never even visited.    This is in direct contradiction to India's own Constitution. The Guardians and Wards Act of 1890, section 9, clearly states that the court that has the jurisdiction to entertain the application with respect to the guardianship of the minor is the district court of the place where the minor ordinarily resides, which, in my son's case, is the Family Court of Westchester County, New York.    The Supreme Court of India not only asserted jurisdiction over me, a non-Indian who has never lived in India, but also turned a blind eye to the death threats to my father and myself by an Indian citizen and threw out my Westchester Court Family Court order of sole physical custody without a written, unexplained disrespect to the comity of courts.    Am I really expected to hire a lawyer, site unseen, in a country which grants me conditional visit visas of 3 to 6 months at a time? Am I to make that lawyer my power of attorney to represent me in court? Am I expected to wire transfer him tens of thousands of U.S. dollars and then trust in God that he is really making the court appearances he claims he is making?    As a non-Indian who never lived in India, I have no records of tax filing, property ownership, employment, education, or residence in India. So on what basis would an Indian court decide whether I am a fit mother or not?    Tova Haynes-Sengupta from Texas is an American left-behind parent. Like me, she has never lived in India. Her 4-year-old daughter Indira was abducted to India by her ex-husband Susanta Sengupta in December 2013. Due to financial constraints of being a single mother who was a homemaker for the duration of her marriage, and the fact that she is the sole custodial parent of Indira's older brother, she has never been able to, and will never be able to, afford to retain a lawyer in India, nor make trips every 6 months for a court appearance there.    She was awarded sole custody of Indira by the Family Court of Williamson County, Texas, after her ex-husband was found guilty of felony child abuse only months prior to the abduction. There is an unlawful flight to avoid prosecution warrant issued against Susanta Sengupta.    Why are Tova and I being asked to petition the district courts of India for child custody when we have never even lived in India? There are over 30 million cases pending in India's courts today. Ninety percent have been pending for over a year, and over half of them have been pending over 5 years. So why am I being forced to be pending case number 30 million and one?    Since April 2013, I have been allowed to speak to my son only 12 times. Despite the false claims of an Office of Children's Issues welfare report from July 2013, my son is not allowed to call me, and all my calls to him are screened by his father. It has been 27 months since I last looked into my own son's eyes. I breast-fed him exclusively for over 3 years until he outgrew his cow's milk allergy. I taught him to read, write, pray, ride a bike.    My son, my ex, and I lived with my parents for most of my married life. I worked hard on my career as a physician, so that I could provide myself and my son with security and our home someday, since my husband was unemployed, though he is also a medical graduate.    People often ask me, ``How did your ex get your son past five international airports without a notarized consent letter from you?'' So I went online and discovered that while the Customs and Border Patrol recommends such a letter, it does not require such a letter. The U.S.A. has no exit controls for people; only for bottles of shampoo over four ounces.    Americans then ask me, ``Why don't you talk to the State Department and they will bring your child back,'' which could not be further from the truth. Left-behind parents like myself of American children who have been abducted to India have all had the same experience in our responses from the U.S. Department of State's Office of Children's Issues.    In December 2014, 4 months after the Goldman Act was signed into law, I emailed my OCI caseworker to have my son deported back to the U.S.--I thought it was a great idea--because he is an American minor living in India on a fraudulently acquired residence visa, or overseas citizen card, which by Indian law requires the notarized consent of both parents of the minor.    And this is the response I got from my caseworker, and I quote,        ``The Department of State does not have the authority         under U.S. law to inform India that a foreigner is         residing there illegally, or to request their         deportation. I encourage you to consult with your         attorney about the best way to inform the Indian court         and the Ministry of Home Affairs, Foreigners Division,         about Abdallah's legal status in India.''    They continue to write,        ``The Sean and David Goldman Act, ICAPRA, grants the         Department of State the authority to employ a full         range of diplomatic tools to improve cooperation with         India on resolving all cases of international parental         child abduction. We strategically tailor our bilateral         efforts to India's unique legal and political system.         While I cannot share government-to-government         communications concerning the status of bilateral         efforts or procedures, I can assure you that we will         seek opportunities to utilize the tools enumerated in         the new law.''    I was elated to learn that consequent to the Goldman Act there were now bilateral efforts and procedures, and government-to-government communications ongoing between India and the U.S. State Department. Finally, there was hope for parents of children abducted to non-Hague Convention countries.    However, in May 2015, on reading the 2015 annual report, we left-behind parents were devastated to discover that there are still no bilateral procedures in place between India and the U.S., according to the report, whereas section 103 of the Goldman Act clearly states not later than 180 days after the date of the enactment of this act, which should have been 5 months ago, the Secretary of State shall initiate a process to develop bilateral procedures, including MOU, which include identification of the central authority, which was not done; identification of the judicial and administrative authority that would promptly adjudicate abduction and access cases, which was also not done; and identification of the law enforcement agencies, not done.    We at Bring Our Kids Home are outraged to learn that our children's cases have been open with the State Department for years, but have still not been reported to the Government of India. Three years after Reyansh Parmar was abducted, 2 years after Abdallah Khan and Nikhita Jagtiani were abducted, yet to date the OCI has submitted no application to the Government of India for any of these children.    What prevents the State Department from reporting these cases to the Government of India? Child abduction is a crime in India under Indian Penal Code 361, punishable by up to 7 years in prison. And both the Ministry of Women and Child Development and the National Commission for the Protection of Children's Rights are mandated by the Indian Constitution itself, to uphold the United Nations Convention on the Rights of the Child, which India ratified in 1992, which states that India has committed itself to, ``Take measures, including the conclusion of bilateral and multilateral agreements, to combat child abduction and the non-return of children abroad.'' This is referring to Articles 11 and 35 of the UNCRC.    The case of Avinash Kulkarni from California is now 25 years old. His son Soumitra, who was abducted at age 6 months in 1990, is now 25 years old and is completely alienated from his distraught father who says that his life stopped the day his son was abducted 25 years ago.    Twenty-five years later, there is still no bilateral agreement in place between India and the U.S. to address IPCA, which is a crime, an act of child abuse, and a terrible violation of children's rights and parental rights. The numbers in the 2015 annual report by the State Department are inexplicable. Nineteen new abduction cases were reported in calendar year 2014. None were reported to a foreign central authority, yet 22 cases are reported as resolved.    What is probably the most alarming is that although India is listed as non-compliant, the only remedial measure recommended by the State Department is D, encourage India to sign the Hague.    India has a long and well-documented history of treating parental abduction cases as routine custody cases, disregarding custody court orders from jurisdictions where the child was habitually a resident and relitigating those decisions in India for several years and millions of rupees. The only person who consistently wins in India is the abducting parent.    It is no secret that our children are abducted to India precisely because of the legal and cultural environment prevalent in India for decades that provides a safe haven for abductors, where they can about their daily lives as if they never committed a crime.    Abducted children from the United States and from around the world are rarely returned by Indian courts. So why wouldn't the State Department choose to apply the full range of Goldman Act recommendations to address their non-compliance, including (A) training, the State Department promotes training with judicial and administrative authorities on the effective handling of international parental child abduction cases; (B) training with law enforcement entities on how to effectively locate children and enforce court-ordered returns; (F) Department officials intensify engagement with the foreign central authorities for updates on IPCA cases and to promote prompt case processing.    While we left-behind parents live a nightmare every waking moment, what really kills us inside is that we know our children suffer far more than us. They were pulled out of their homes at the most tender age, cruelly deprived of a mother or father's nuture, removed from their family, friends, their pets, their school.    Overnight they find themselves in a new country where they are thrust into a new living situation, a new school, with a foreign language and foreign customs, where they must always be stigmatized and bullied as the Indo-American child whose American parent abandoned them.    They are brainwashed by the abducting parent that they have been abandoned and are already forgotten by the left-behind parent. And they are forced to turn against their left-behind parent in violation of their every natural instinct to love and be loyal to both parents.    My own son was snatched from me at age 6 and is now being cared for by a maid who probably did not attend school, who cannot even communicate with my son. When I last spoke to my son a few months ago, he only knows English. He doesn't know any Hindi.    I am also shocked at how the school that my son was enrolled in, the Delhi Public School, which is one of the best schools of India with several international branches, has enrolled my son without my ex-husband providing a transfer, a school leaving certificate, from Abdallah's elementary school in New York, without providing recent report cards, immunization records, none of that, all of which are typically required by the Board of Education for enrollment of children between grades one and six.    Is it not incumbent on every civilized society to protect its most vulnerable citizens? We at Bring Our Kids Home understand that this is a new era for the strategic partnership between the United States and India. Forward together we go. Chalein Saath Saath.    The two largest democracies of the world have agreed to work together, not only for the benefit of both nations but for the benefit of the world. Together we seek a reliable and enduring friendship.    However, our leaders must never forget Gandhi's words, the seven deadly social sins, including politics without principle, and commerce without morality. Our children need not be considered as sacrifices to the altar of commerce.    A true friend will tell you the truth about yourself and use it to empower you, not to belittle or destroy you. The question is: Does the United States have the courage to make the human rights and security of American children a priority and tell the truth? And does India have the will to lead by actions, not just by words?</t>
   </si>
   <si>
@@ -518,9 +488,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Thank you very much, Dr. Rahman.    Ms. McGee.</t>
-  </si>
-  <si>
-    <t>McGee</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. McGee. Thank you. Thank you for giving me this opportunity to speak today. I would like to start out by saying that my children are being illegally retained in Japan by Sean McGee currently employed at Nomura Securities. Under the International Parental Kidnapping Crime Act (IPKCA), he has been retaining them outside the U.S. with the intent to obstruct the lawful exercise of my parental rights.    My children, Brendan, MaryKate, Jack, and Megan are all natural born U.S. citizens, holding only U.S. passports. Sean and I are also natural born U.S. citizens, holding only U.S. passports. We are not Japanese.    My husband, Sean McGee, works for Nomura Securities. He has been retaining my children against my will since December 2012, and has not allowed them to return to the United States in over 3 years. This is not about a custody dispute. This is about my children's right to be with and be loved by both parents.    Much has transpired over the 3-plus years, most notably the fact that after an 8-day plenary hearing Judge Matthew Curry ruled that my children and I are all bona fide habitual residents of New Jersey. Jurisdiction in the State of New Jersey. Why is it so difficult to bring my American children home to the United States?    The State Department, via the Sean Goldman Act, released its first annual report on countries that refuse to return American children who have been abducted or retained by a parent abroad. Conspicuously absent from this list was the worst offender, Japan. Japan has never enforced or issued a return order for any American child being held captive there.    This scenario of one parent violating the wishes of another parent by retaining children in Japan has been going on for many years. Japan is a black hole for child abduction. All members of the McGee family are American, and they are being held hostage by their father in Japan.    Sean has been able to live a very extravagant lifestyle in Japan, thanks to his employer, Nomura Securities. He vacations regularly to Phuket, Australia, India, Hong Kong, Korea, London, and Portugal. His lavish apartment costs $14,000 per month. At the same time, our youngest daughter Megan and I were on food stamps for over a year. The gas company, PSE&amp;G, shut our power off.    Sean has not been following through with the court orders that are required of him. He is court ordered to pay my legal fees. My lawyers are no longer representing me due to his willful neglect in payment. In addition, he was court ordered to pay the mortgage on the family home. Our home is currently in foreclosure due to his willful neglect in payment. Not only do I have no one to represent me, but I had to file bankruptcy as well. Sean is breaking the law on many levels.    Our family unit has been torn apart physically and emotionally. Not only are they held captive in Japan, but they are now victims of Sean's mental abuse. His campaign to alienate them from me and my entire family will cause lasting repercussions. The children are in grave danger due to his alcoholism and lack of supervision. Many nights they are left home alone while he is out drinking in Tokyo. The truth is that the children are struggling immensely in many areas affecting their lives, including academic, mental health, and substance abuse.    Last September, my father died, my children's grandpa, Vincent Cianciotto. Sean did not permit them to come home to attend his funeral. The role of their grandpa was one to be admired, for he took on a fatherly role for them their entire life due to Sean's lack of the ability in this area.    It pains me as a mother to be so far removed and not be able to comfort them and love them, as I have done their entire lives. You cannot imagine waking up each and every day not being able to be with your children. I miss every aspect of their being, their smiles, their laughter, and their tears.    If there are any parents in the room today, I ask you to close your eyes and envision one day where you wake up and have no idea what is transpiring in the life of your child. That is what I have been experiencing every day for the past 2\\1/2\\ years. A void that needs to be filled. No loving parent should have to experience this.    Japan and Nomura Securities, you are aiding and abetting a child abductor and abuser. Send my children home.    Thank you for allowing me this opportunity to tell my personal story. I hope this helps to bring awareness of the situation in order to return all our American children home.    Thank you.</t>
@@ -1159,11 +1126,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1183,13 +1148,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1211,11 +1174,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1237,11 +1198,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1263,11 +1222,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1289,11 +1246,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1315,11 +1270,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1341,11 +1294,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1367,11 +1318,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1393,11 +1342,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1419,11 +1366,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1445,11 +1390,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1471,11 +1414,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1497,11 +1438,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1523,11 +1462,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1549,11 +1486,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1575,11 +1510,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1601,11 +1534,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1627,11 +1558,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1653,11 +1582,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1679,11 +1606,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1705,11 +1630,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1731,11 +1654,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1757,11 +1678,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1783,11 +1702,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1809,11 +1726,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1835,11 +1750,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1861,11 +1774,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1887,11 +1798,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1913,11 +1822,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1939,11 +1846,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1965,11 +1870,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1991,11 +1894,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2017,11 +1918,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2043,11 +1942,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2069,11 +1966,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2095,11 +1990,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2121,11 +2014,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2147,11 +2038,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2171,13 +2060,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2197,13 +2084,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2223,13 +2108,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2249,13 +2132,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2275,13 +2156,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2301,13 +2180,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2327,13 +2204,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2353,13 +2228,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2379,13 +2252,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2405,13 +2276,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2431,13 +2300,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2457,13 +2324,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2483,13 +2348,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2509,13 +2372,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2535,13 +2396,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2561,13 +2420,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2587,13 +2444,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2613,13 +2468,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2639,13 +2492,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2665,13 +2516,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2691,13 +2540,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2717,13 +2564,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2743,13 +2588,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2769,13 +2612,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2795,13 +2636,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2821,13 +2660,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2847,13 +2684,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2873,13 +2708,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2899,13 +2732,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2925,13 +2756,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2951,13 +2780,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2977,13 +2804,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3003,13 +2828,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3031,11 +2854,9 @@
       <c r="F74" t="s">
         <v>11</v>
       </c>
-      <c r="G74" t="s">
-        <v>12</v>
-      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3055,13 +2876,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>88</v>
-      </c>
-      <c r="G75" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3081,13 +2900,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
+        <v>86</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
         <v>88</v>
-      </c>
-      <c r="G76" t="s">
-        <v>89</v>
-      </c>
-      <c r="H76" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3107,13 +2924,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>88</v>
-      </c>
-      <c r="G77" t="s">
+        <v>86</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
         <v>89</v>
-      </c>
-      <c r="H77" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3133,13 +2948,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>88</v>
-      </c>
-      <c r="G78" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3159,13 +2972,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>88</v>
-      </c>
-      <c r="G79" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3185,13 +2996,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>88</v>
-      </c>
-      <c r="G80" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3211,13 +3020,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>88</v>
-      </c>
-      <c r="G81" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3237,13 +3044,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>88</v>
-      </c>
-      <c r="G82" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3263,13 +3068,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>88</v>
-      </c>
-      <c r="G83" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3289,13 +3092,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>88</v>
-      </c>
-      <c r="G84" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3315,13 +3116,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>88</v>
-      </c>
-      <c r="G85" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3341,13 +3140,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>88</v>
-      </c>
-      <c r="G86" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3367,13 +3164,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>88</v>
-      </c>
-      <c r="G87" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3393,13 +3188,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>88</v>
-      </c>
-      <c r="G88" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3419,13 +3212,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>88</v>
-      </c>
-      <c r="G89" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3445,13 +3236,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>88</v>
-      </c>
-      <c r="G90" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3471,13 +3260,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>88</v>
-      </c>
-      <c r="G91" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3497,13 +3284,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>88</v>
-      </c>
-      <c r="G92" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3523,13 +3308,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>88</v>
-      </c>
-      <c r="G93" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3549,13 +3332,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>88</v>
-      </c>
-      <c r="G94" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3575,13 +3356,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>88</v>
-      </c>
-      <c r="G95" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3601,13 +3380,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>88</v>
-      </c>
-      <c r="G96" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3627,13 +3404,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>88</v>
-      </c>
-      <c r="G97" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3653,13 +3428,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>88</v>
-      </c>
-      <c r="G98" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3679,13 +3452,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>88</v>
-      </c>
-      <c r="G99" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3705,13 +3476,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>88</v>
-      </c>
-      <c r="G100" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3731,13 +3500,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>88</v>
-      </c>
-      <c r="G101" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3757,13 +3524,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>88</v>
-      </c>
-      <c r="G102" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3783,13 +3548,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>88</v>
-      </c>
-      <c r="G103" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3809,13 +3572,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>88</v>
-      </c>
-      <c r="G104" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3835,13 +3596,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>88</v>
-      </c>
-      <c r="G105" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3861,13 +3620,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>88</v>
-      </c>
-      <c r="G106" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3887,13 +3644,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>88</v>
-      </c>
-      <c r="G107" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3913,13 +3668,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>88</v>
-      </c>
-      <c r="G108" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3941,11 +3694,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3967,11 +3718,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>12</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3993,11 +3742,9 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
-        <v>12</v>
-      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4019,11 +3766,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>12</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4045,11 +3790,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4071,11 +3814,9 @@
       <c r="F114" t="s">
         <v>11</v>
       </c>
-      <c r="G114" t="s">
-        <v>12</v>
-      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4097,11 +3838,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4123,11 +3862,9 @@
       <c r="F116" t="s">
         <v>11</v>
       </c>
-      <c r="G116" t="s">
-        <v>12</v>
-      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4147,13 +3884,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>14</v>
-      </c>
-      <c r="G117" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4173,13 +3908,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4199,13 +3932,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>14</v>
-      </c>
-      <c r="G119" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4225,13 +3956,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>14</v>
-      </c>
-      <c r="G120" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4253,11 +3982,9 @@
       <c r="F121" t="s">
         <v>11</v>
       </c>
-      <c r="G121" t="s">
-        <v>12</v>
-      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4279,11 +4006,9 @@
       <c r="F122" t="s">
         <v>11</v>
       </c>
-      <c r="G122" t="s">
-        <v>12</v>
-      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4303,13 +4028,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>138</v>
-      </c>
-      <c r="G123" t="s">
-        <v>139</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4331,11 +4054,9 @@
       <c r="F124" t="s">
         <v>11</v>
       </c>
-      <c r="G124" t="s">
-        <v>12</v>
-      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4355,13 +4076,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
+        <v>135</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
         <v>138</v>
-      </c>
-      <c r="G125" t="s">
-        <v>139</v>
-      </c>
-      <c r="H125" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4383,11 +4102,9 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>12</v>
-      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4407,13 +4124,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>138</v>
-      </c>
-      <c r="G127" t="s">
-        <v>144</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4433,13 +4148,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>138</v>
-      </c>
-      <c r="G128" t="s">
-        <v>146</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4461,11 +4174,9 @@
       <c r="F129" t="s">
         <v>11</v>
       </c>
-      <c r="G129" t="s">
-        <v>12</v>
-      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4485,13 +4196,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>138</v>
-      </c>
-      <c r="G130" t="s">
-        <v>149</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4513,11 +4222,9 @@
       <c r="F131" t="s">
         <v>11</v>
       </c>
-      <c r="G131" t="s">
-        <v>12</v>
-      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4537,13 +4244,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>138</v>
-      </c>
-      <c r="G132" t="s">
-        <v>152</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4565,11 +4270,9 @@
       <c r="F133" t="s">
         <v>11</v>
       </c>
-      <c r="G133" t="s">
-        <v>12</v>
-      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4589,13 +4292,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>138</v>
-      </c>
-      <c r="G134" t="s">
-        <v>155</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4617,11 +4318,9 @@
       <c r="F135" t="s">
         <v>11</v>
       </c>
-      <c r="G135" t="s">
-        <v>12</v>
-      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4641,13 +4340,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>138</v>
-      </c>
-      <c r="G136" t="s">
-        <v>158</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4669,11 +4366,9 @@
       <c r="F137" t="s">
         <v>11</v>
       </c>
-      <c r="G137" t="s">
-        <v>12</v>
-      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4693,13 +4388,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>138</v>
-      </c>
-      <c r="G138" t="s">
-        <v>158</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4721,11 +4414,9 @@
       <c r="F139" t="s">
         <v>11</v>
       </c>
-      <c r="G139" t="s">
-        <v>12</v>
-      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4745,13 +4436,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>138</v>
-      </c>
-      <c r="G140" t="s">
-        <v>158</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4773,11 +4462,9 @@
       <c r="F141" t="s">
         <v>11</v>
       </c>
-      <c r="G141" t="s">
-        <v>12</v>
-      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4799,11 +4486,9 @@
       <c r="F142" t="s">
         <v>11</v>
       </c>
-      <c r="G142" t="s">
-        <v>12</v>
-      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4823,13 +4508,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>138</v>
-      </c>
-      <c r="G143" t="s">
-        <v>158</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4851,11 +4534,9 @@
       <c r="F144" t="s">
         <v>11</v>
       </c>
-      <c r="G144" t="s">
-        <v>12</v>
-      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4875,13 +4556,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>138</v>
-      </c>
-      <c r="G145" t="s">
-        <v>168</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4903,11 +4582,9 @@
       <c r="F146" t="s">
         <v>11</v>
       </c>
-      <c r="G146" t="s">
-        <v>12</v>
-      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4927,13 +4604,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>138</v>
-      </c>
-      <c r="G147" t="s">
-        <v>155</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4955,11 +4630,9 @@
       <c r="F148" t="s">
         <v>11</v>
       </c>
-      <c r="G148" t="s">
-        <v>12</v>
-      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4979,13 +4652,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>138</v>
-      </c>
-      <c r="G149" t="s">
-        <v>155</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5007,11 +4678,9 @@
       <c r="F150" t="s">
         <v>11</v>
       </c>
-      <c r="G150" t="s">
-        <v>12</v>
-      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5031,13 +4700,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>138</v>
-      </c>
-      <c r="G151" t="s">
-        <v>155</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5059,11 +4726,9 @@
       <c r="F152" t="s">
         <v>11</v>
       </c>
-      <c r="G152" t="s">
-        <v>12</v>
-      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5083,13 +4748,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>138</v>
-      </c>
-      <c r="G153" t="s">
-        <v>155</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5111,11 +4774,9 @@
       <c r="F154" t="s">
         <v>11</v>
       </c>
-      <c r="G154" t="s">
-        <v>12</v>
-      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5135,13 +4796,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>138</v>
-      </c>
-      <c r="G155" t="s">
-        <v>155</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5163,11 +4822,9 @@
       <c r="F156" t="s">
         <v>11</v>
       </c>
-      <c r="G156" t="s">
-        <v>12</v>
-      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5187,13 +4844,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>138</v>
-      </c>
-      <c r="G157" t="s">
-        <v>146</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5215,11 +4870,9 @@
       <c r="F158" t="s">
         <v>11</v>
       </c>
-      <c r="G158" t="s">
-        <v>12</v>
-      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5239,13 +4892,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>138</v>
-      </c>
-      <c r="G159" t="s">
-        <v>152</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5267,11 +4918,9 @@
       <c r="F160" t="s">
         <v>11</v>
       </c>
-      <c r="G160" t="s">
-        <v>12</v>
-      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5291,13 +4940,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>138</v>
-      </c>
-      <c r="G161" t="s">
-        <v>152</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5319,11 +4966,9 @@
       <c r="F162" t="s">
         <v>11</v>
       </c>
-      <c r="G162" t="s">
-        <v>12</v>
-      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5343,13 +4988,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>138</v>
-      </c>
-      <c r="G163" t="s">
-        <v>152</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5371,11 +5014,9 @@
       <c r="F164" t="s">
         <v>11</v>
       </c>
-      <c r="G164" t="s">
-        <v>12</v>
-      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5395,13 +5036,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>138</v>
-      </c>
-      <c r="G165" t="s">
-        <v>168</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5423,11 +5062,9 @@
       <c r="F166" t="s">
         <v>11</v>
       </c>
-      <c r="G166" t="s">
-        <v>12</v>
-      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5447,13 +5084,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>88</v>
-      </c>
-      <c r="G167" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5473,13 +5108,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>138</v>
-      </c>
-      <c r="G168" t="s">
-        <v>146</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5499,13 +5132,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>88</v>
-      </c>
-      <c r="G169" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5525,13 +5156,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>138</v>
-      </c>
-      <c r="G170" t="s">
-        <v>152</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5551,13 +5180,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>88</v>
-      </c>
-      <c r="G171" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5577,13 +5204,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>138</v>
-      </c>
-      <c r="G172" t="s">
-        <v>155</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5603,13 +5228,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>88</v>
-      </c>
-      <c r="G173" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5629,13 +5252,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>138</v>
-      </c>
-      <c r="G174" t="s">
-        <v>155</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5655,13 +5276,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>88</v>
-      </c>
-      <c r="G175" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5681,13 +5300,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>138</v>
-      </c>
-      <c r="G176" t="s">
-        <v>155</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5707,13 +5324,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>88</v>
-      </c>
-      <c r="G177" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5733,13 +5348,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>138</v>
-      </c>
-      <c r="G178" t="s">
-        <v>158</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5759,13 +5372,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>88</v>
-      </c>
-      <c r="G179" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5785,13 +5396,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>138</v>
-      </c>
-      <c r="G180" t="s">
-        <v>158</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5811,13 +5420,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>88</v>
-      </c>
-      <c r="G181" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5837,13 +5444,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>138</v>
-      </c>
-      <c r="G182" t="s">
-        <v>158</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5863,13 +5468,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>88</v>
-      </c>
-      <c r="G183" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5889,13 +5492,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>138</v>
-      </c>
-      <c r="G184" t="s">
-        <v>158</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5915,13 +5516,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>88</v>
-      </c>
-      <c r="G185" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5941,13 +5540,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>138</v>
-      </c>
-      <c r="G186" t="s">
-        <v>168</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5967,13 +5564,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>88</v>
-      </c>
-      <c r="G187" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5993,13 +5588,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>138</v>
-      </c>
-      <c r="G188" t="s">
-        <v>168</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6019,13 +5612,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>88</v>
-      </c>
-      <c r="G189" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6045,13 +5636,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>138</v>
-      </c>
-      <c r="G190" t="s">
-        <v>168</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6071,13 +5660,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>88</v>
-      </c>
-      <c r="G191" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6097,13 +5684,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>138</v>
-      </c>
-      <c r="G192" t="s">
-        <v>168</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6123,13 +5708,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>88</v>
-      </c>
-      <c r="G193" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6151,11 +5734,9 @@
       <c r="F194" t="s">
         <v>11</v>
       </c>
-      <c r="G194" t="s">
-        <v>12</v>
-      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6175,13 +5756,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>138</v>
-      </c>
-      <c r="G195" t="s">
-        <v>158</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6203,11 +5782,9 @@
       <c r="F196" t="s">
         <v>11</v>
       </c>
-      <c r="G196" t="s">
-        <v>12</v>
-      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6227,13 +5804,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>138</v>
-      </c>
-      <c r="G197" t="s">
-        <v>158</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6255,11 +5830,9 @@
       <c r="F198" t="s">
         <v>11</v>
       </c>
-      <c r="G198" t="s">
-        <v>12</v>
-      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6279,13 +5852,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>138</v>
-      </c>
-      <c r="G199" t="s">
-        <v>158</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6307,11 +5878,9 @@
       <c r="F200" t="s">
         <v>11</v>
       </c>
-      <c r="G200" t="s">
-        <v>12</v>
-      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6331,13 +5900,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>138</v>
-      </c>
-      <c r="G201" t="s">
-        <v>168</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6359,11 +5926,9 @@
       <c r="F202" t="s">
         <v>11</v>
       </c>
-      <c r="G202" t="s">
-        <v>12</v>
-      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6383,13 +5948,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>138</v>
-      </c>
-      <c r="G203" t="s">
-        <v>155</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6411,11 +5974,9 @@
       <c r="F204" t="s">
         <v>11</v>
       </c>
-      <c r="G204" t="s">
-        <v>12</v>
-      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6435,13 +5996,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>138</v>
-      </c>
-      <c r="G205" t="s">
-        <v>155</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6463,11 +6022,9 @@
       <c r="F206" t="s">
         <v>11</v>
       </c>
-      <c r="G206" t="s">
-        <v>12</v>
-      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6487,13 +6044,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>138</v>
-      </c>
-      <c r="G207" t="s">
-        <v>146</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6513,13 +6068,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>138</v>
-      </c>
-      <c r="G208" t="s">
-        <v>155</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6541,11 +6094,9 @@
       <c r="F209" t="s">
         <v>11</v>
       </c>
-      <c r="G209" t="s">
-        <v>12</v>
-      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6565,13 +6116,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>138</v>
-      </c>
-      <c r="G210" t="s">
-        <v>155</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6593,11 +6142,9 @@
       <c r="F211" t="s">
         <v>11</v>
       </c>
-      <c r="G211" t="s">
-        <v>12</v>
-      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6617,13 +6164,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>138</v>
-      </c>
-      <c r="G212" t="s">
-        <v>155</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6643,13 +6188,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>88</v>
-      </c>
-      <c r="G213" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6669,13 +6212,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>138</v>
-      </c>
-      <c r="G214" t="s">
-        <v>155</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6695,13 +6236,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>88</v>
-      </c>
-      <c r="G215" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6721,13 +6260,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>138</v>
-      </c>
-      <c r="G216" t="s">
-        <v>155</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6749,11 +6286,9 @@
       <c r="F217" t="s">
         <v>11</v>
       </c>
-      <c r="G217" t="s">
-        <v>12</v>
-      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6773,13 +6308,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>138</v>
-      </c>
-      <c r="G218" t="s">
-        <v>155</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6801,11 +6334,9 @@
       <c r="F219" t="s">
         <v>11</v>
       </c>
-      <c r="G219" t="s">
-        <v>12</v>
-      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6825,13 +6356,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>138</v>
-      </c>
-      <c r="G220" t="s">
-        <v>155</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6853,11 +6382,9 @@
       <c r="F221" t="s">
         <v>11</v>
       </c>
-      <c r="G221" t="s">
-        <v>12</v>
-      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6877,13 +6404,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>138</v>
-      </c>
-      <c r="G222" t="s">
-        <v>155</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6905,11 +6430,9 @@
       <c r="F223" t="s">
         <v>11</v>
       </c>
-      <c r="G223" t="s">
-        <v>12</v>
-      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6929,13 +6452,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>138</v>
-      </c>
-      <c r="G224" t="s">
-        <v>146</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6955,13 +6476,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>138</v>
-      </c>
-      <c r="G225" t="s">
-        <v>155</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6983,11 +6502,9 @@
       <c r="F226" t="s">
         <v>11</v>
       </c>
-      <c r="G226" t="s">
-        <v>12</v>
-      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95517.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95517.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="253">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400380</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Smith. Good morning, and the hearing will come to order.    And we thank all of you, especially all of the left-behind parents I see in the audience--and there are many--for joining us this morning to discuss how the U.S. Department of State's first annual report under the Sean and David Goldman International Child Abduction Prevention and Return Act can better correspond with the mandate set by Congress and achieve the return of abducted American children, which is the ultimate objective of the Goldman Act.    Every year, as we know, an estimated 1,000 American children are unlawfully removed from their homes by one of their parents and taken across international borders. As many of you know all too well, international parental child abduction rips children from their homes and families and whisks them away to a foreign land alienating them from the love and care of the parent and family left behind.    Child abduction is child abuse, and it continues to plague families across the United States and across the world. For decades, the State Department has used quiet diplomacy to attempt to bring these children home. But we know that less than half of these children ever come home, even from countries that have signed the Hague Convention on the Civil Aspects of International Child Abduction.    In a hearing I held on this issue back in 2009, former Assistant Secretary of State Bernie Aronson called quiet diplomacy ``a sophisticated form of begging.'' Thousands of American families, still ruptured and grieving from years of unresolved abductions, confirm that quiet diplomacy is gravely inadequate.    Last year, Congress unanimously passed the Goldman Act to give teeth to requests for return and for access. The actions required by the law escalate in severity and range from official protest through diplomatic channels to extradition to the suspension of development, security, or other foreign assistance.    The Goldman Act is a law calculated to get results, as we did in the return of Sean Goldman from Brazil in late December 2009. But the new law is only as good as its implementation. The State Department's first annual report that we are reviewing today is the first step in moving past quiet diplomacy to results. The State Department must get this report right in order to trigger the actions above and for the law to be an effective tool.    Countries should be listed as worst offenders if they have high numbers of cases--30 percent or more--that have been pending over a year, or if their law enforcement, judiciary, or central authority for abduction regularly fail in their duties under the Hague Convention or other controlling agreements, or if the country simply fails to work with the United States to resolve cases.    Once these countries are properly classified, the Secretary of State then determines which of the aforementioned sanctions the United States will apply to the country in order to encourage the timely resolution of abduction and access cases.    While the State Department has choice on which tools to apply, and can waive actions for up to 180 days, the State Department does not have discretion over whether to report accurately to Congress on the country's record or whether the country is objectively non-compliant.    As we have seen in the human trafficking context--and I would note parenthetically I authored the Trafficking Victims Protection Act of 2000 as well as the Goldman Act--accurate accounting of a country's record, especially in comparison with other countries, can do wonders to prod much-needed reform. Accurate reporting is also critical to family court judges across the country, and parents considering their child's travel to a country where abduction or access problems are a risk.    The stakes are high. Misleading or incomplete information could mean the loss of another American child to abduction. For example, a judge might look at the report table filled with zeroes in the unresolved cases category, such as is the case with Japan, and erroneously conclude that a country is not of concern, giving permission to an estranged spouse to travel with a child for a vacation.    The estranged spouse then abducts the child, and the left-behind parent spends his or her life savings and many years trying to get the child returned to the United States, all of which could have been avoided with accurate reporting on the danger.    I am very concerned that the first annual report contains major gaps and even misleading information, especially when it comes to countries with which we have the most intractable abduction cases. For example, the report indicates that India, which has consistently been in the top five destinations for abducted children, has 19 new cases in 2014, 22 resolved cases, and no unresolved cases. However, we know that from the National Center for Missing and Exploited Children that India has 53 open cases, and that 51 have been pending for more than 1 year.    While the State Department has shown willingness to work constructively on making the report better, for example, meeting last week with our staff, our June 11 hearing left many questions unanswered as to why this report failed to hold countries accountable for unresolved cases.    We wrote the law with the belief that the State Department was formally raising these cases by name, with the foreign ministries of destination countries, and asked that cases still pending for 1 year after being raised would be counted as unresolved. But these cases were not included in the report.    A few parents who reported their cases to the State Department years ago, and who have consistently been asking the Department for help, were told by their case officers recently that the cases were formally communicated to India in May 2015. May 2015. Clearly, delay is denial. They thought that that was not the case.    The Goldman Act also requires that the State Department take actions against countries, such as India and Japan, if they refuse to resolve abduction and access cases. The Goldman Act requires the State Department to bring negotiations with countries like India and Japan for a bilateral agreement to secure resolution of the more than 100 open cases we have pending with those two countries, cases that are not listed as unresolved in the report.    The Goldman Act requires an end to the status quo, but the first step to change is telling the truth in the report, which is why I am so concerned that Japan was not listed as showing a persistent failure to work with the United States on abduction issues. Japan has never issued and enforced a return order for a single one of the hundreds of American children abducted there. It holds the world record on the abduction of American children never returned. And yet it got a pass on more than 50 known open cases, most of which have been pending for 5 years or more.    Among those cases is that of Sergeant Michael Elias, who has not seen his children, Jade and Michael, since 2008. Michael served as a Marine who saw combat in Iraq. His wife, who worked in the Japanese Consulate, used documents fraudulently obtained, with the apparent complicity of the Japanese Consulate personnel, to kidnap their children, then aged four and two, in defiance of a court order telling Michael on a phone call that there was nothing that he could do. And she said, ``My country''--that is, Japan--``will protect me.''    Her country, very worried about its designation in the new report, sent a high-level delegation to the United States in March to meet with Ambassador Jacobs, our distinguished witness, who will lead off today's hearing, and explain why Japan should be excused from being listed as non-compliant, despite the fact that more than 1 year after signing the Hague Convention on the Civil Aspects of International Child Abduction Japan has ordered zero returns to the U.S.    Just before the report was released in May, 2 weeks late, Takashi Okada, Deputy Director of the Secretariat of the Ministry of Foreign Affairs, told the Japanese Diet that he had been in consultation with the State Department and, ``Because we strive to make an explanation to the U.S. side, I hope that the report contents will be based on our country's efforts.''    In other words, Japan understood it could get a pass potentially from the United States and escape the list of countries facing action by the U.S. for their failure to resolve abduction cases based on what Mr. Okada euphemistically referred as ``efforts,'' not concrete results.    Sergeant Michael Elias' country has utterly failed to protect him. He has seen zero progress, and I traveled to Japan myself with Michael's mother. And the idea there was, as she had a very close relationship with her daughter-in-law, that at least the grandmother of those children might have access, and we utterly failed during that trip to garner any kind of access, contact, and certainly no action on returning his children.    The Goldman Act is clear. All results for return that the State Department submitted to the Foreign Ministry and that remain unresolved 12 months later are to be counted against Japan and followed up with action. The Goldman Act has given the State Department new and powerful tools to bring Japan and other countries to the resolution table.    The goal is not to disrupt relations but to heal the painful rifts caused by international child abduction. The question still remains: Will the State Department use the Goldman Act as required by law?    I would like to yield to my good friend and colleague, Mr. Cicilline, for any opening comments he might have.</t>
   </si>
   <si>
     <t>412470</t>
   </si>
   <si>
+    <t>Cicilline</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cicilline. Thank you, Mr. Chairman. I want to begin by thanking you for your leadership and for calling today's hearing on the Goldman Act to Return Abducted American Children: Ensuring Accurate Numbers and Administration Action, to give us an opportunity to discuss the disturbing increase of child abduction cases in recent years and examine how the Obama administration has been able to implement the very important provisions of the Goldman Act in order to ensure that all children that call the United States home are able to return.    I would also like to thank our distinguished witnesses for today's hearing that includes advocates, government officials, and, most importantly, parents that have been personally affected by international parental abductions.    I look forward to hearing each of your perspectives based on your expertise and personal experiences in this area, including your assessment of what more should be done to successfully implement the Goldman Act and how Congress can assist with effective implementation moving forward.    According to the State Department, approximately 1,000 children are victims of international parental abduction every year. It is important to note, however, that in recent years there has been a significant increase in the number of American children being abducted. This sharp increase in abductions is a grim indicator that while globalization has brought innumerable benefits to us all, the ease of international travel has had a negative impact on the number of parental abductions that occur.    For example, over 300 U.S. children have been abducted to Japan since 1994. And despite Japan's ratification of the Hague Convention on the Civil Aspects of International Child Abduction in 2014, many of these cases would not fall under the Convention as the ratification does not have retroactive power.    I look forward to hearing how the administration is working to bring all abducted children back, not only from Japan but from other countries with high numbers of abducted U.S. children, including India and Brazil. And I am very pleased that we have witnesses that can speak to their personal experiences dealing with abducted children in those countries as well.    I am proud to say that Congress has been quite active in this area of the law, with strong bipartisan support throughout. In December 2013, the House unanimously passed H.R. 3212, the Sean and David Goldman International Child Abduction Prevention and Return Act. This bipartisan support shows how committed this body is to ensuring that children are protected and that their welfare remains a top priority.    The Goldman Act provides a range of steps that the administration can take depending on the severity of the situation, from a petition through diplomatic channels to more serious actions like the withdrawal of foreign assistance or a formal request for extradition.    I look forward to hearing from our witnesses representing the administration on how effective these strategies that are outlined in the act have been in the short period of time since its enactment.    I will close by saying that we all have a personal stake in protecting those that are most vulnerable in our society. The welfare of our youngest citizens is of utmost importance, and I look forward to working with my colleagues here on the Hill and with the Obama administration to ensure that all children remain safe and in the custody of those that have been awarded that privilege.    And, again, I thank our witnesses, and thank the chairman, and yield back.    Thank you.</t>
   </si>
   <si>
@@ -277,6 +292,12 @@
     <t>412552</t>
   </si>
   <si>
+    <t>Meadows</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Meadows. Thank you, Mr. Chairman.    Madam Ambassador, welcome back.    Ambassador Jacobs. Thank you, sir.</t>
   </si>
   <si>
@@ -424,6 +445,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Royce</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Royce. Thank you, Mr. Chairman. I will just take a moment here and thank you for your years of advocacy on this issue. It is good to see Ambassador Jacobs here, and I hope, really, that this hearing will help improve the reporting that this new law requires from her office. And, in particular, accurate data on unresolved abduction cases is essential to enabling American parents and judges to make informed decisions about whether to allow children to travel to particular countries in order to avoid new abduction cases.    I also want to welcome all of our left-behind parent witnesses, including Kelly Rutherford, whose case I have raised previously with the State Department. We cannot help but feel the trauma that all of you endure while separated from your daughters and your sons. And, Kelly, all of us here are so pleased that you have been reunited with your children for the summer. We continue to hope for a permanent resolution for your family.    Before yielding back, I also would like to submit for the record a written statement by Sarah Kurtz, a resident of Los Angeles, who is enduring a painful separation from her two children who are currently in Sweden.    And I am grateful to the subcommittee, again, but also to the State Department, and our brave witnesses, for coming together today to shine a very personal light on these very tragic separations which must be mended.    Thank you again, Mr. Chairman.</t>
   </si>
   <si>
@@ -436,33 +460,51 @@
     <t xml:space="preserve">    Mr. Smith. We are also joined by a good friend of mine from the State of New Jersey, Leonard Lance.</t>
   </si>
   <si>
+    <t>Lance</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lance. Thank you, Mr. Chairman. Certainly, this is a very important issue, and I commend your leadership on this, your leadership over many years. And among the panelists, I welcome Ms. McGee , who is from the part of New Jersey that I have the honor of representing. This is an issue that demands the attention of the full Congress of the United States.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
+    <t>Apy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Apy. It is my privilege to return to discuss ICAPRA and to discuss the reporting requirements. My purpose today is to review and articulate, first of all, the importance of the report, the current deficiencies in the existing report, and the necessity to address those deficiencies as a matter of urgency in order to aggressively combat international child abduction by encouraging a report which will become the authoritative source of objective evidence to assess obstacles to recovery of all children.    The focus of this act is two-fold. The first is prevention, which is of course one of the most important aspects of preventing the scourge of child abduction. This is the only report that is internationally issued with regard to accurate numbers involving child abduction.    Secretary General Bernasconi at the Hague has at least twice formally indicated that the Hague doesn't have the resources, does not have accurate information, is not provided information by countries. So much like the Trafficking in Persons Report, this is going to be not just the report that is looked at for prevention purposes by those in the United States of America, by those of you who legislate, by the diplomats who are addressing these issues, but of course by American judges, by American lawyers, by parents, in making determinations with respect to the resolution of their international custody agreements.    If you don't have accurate information, then you don't know that there is a risk. In my written remarks, I have outlined the way that those of us who do this work assess the risk of abduction. And it is a matrix, and I have talked about this before before this subcommittee. It is a matrix of the individual attributes of the litigants and the obstacles to recovery.    And the way that the obstacles to recovery are assessed is by looking at the objective information regarding whether or not there is a likelihood that a country is going to return a child who has been wrongfully removed or retained.    Now, I listened carefully to Ambassador Jacobs, and I was concerned in that one of the things when you, I believe it was Mr. Cicilline, who asked about the non-compliance process and that definition. And the Ambassador returned to the compliance assessment that preceded the current law.    What used to happen--and, again, this is more definitively addressed in my written remarks, what used to happen is the State Department would subjectively review, as she recounted, the judicial performance, law enforcement performance, and whether or not there is a central authority. That is no longer the way, or at least it is not the exclusive way, under the law that we are looking, in terms of oversight today.    And the point was that it was too subjective a mechanism to enable judges or lawyers or anyone else to accurately tell whether or not a country was or was not in compliance. So the new law made the requirement to be that of objective numbers. Tell us how many cases there are. Tell us how long they have been there.    Give us the objective criteria, so that anyone looking at the report, not just those who are perhaps on the telephone--and we have heard about transparency--anyone can pick up the report, including a judge, including a diplomat, including a legislator, and know whether or not there is a problem.    I recounted in my written remarks two cases, focusing on two particular countries. I did that because I could testify about specific cases that were not represented in the report. The United Arab Emirates is a country with which we have great diplomatic relationships. They are our partners in fighting terrorism in the region. I work with them consistently, and it is reported that there are no pending cases.    There is no question that there is a pending case. There is no question that there is a case in which there have been criminal indictments issued by the United States Attorney for the return of Gabrielle Dahm. There is no explanation provided for why that case is not reflected.    The other issue I would like to point out--and, again, my written remarks go into more detail, but--and we have been talking about Japan. Let me limit my remarks to Hague cases, because the response that the Ambassador gave was that the reason for the designation of no cases had to do with the pre-Convention cases.    Presume for the moment that that is the case. Let me address the cases that are in being since the Hague has been passed, many of which involve parents desperate, who have been willing to forego the return applications in favor of access applications. The access applications--first of all, in many cases, the Japanese insisted that those return applications be withdrawn if they were going to work the access cases. Let us begin with that.    You have no choice. You want to see your child; this is the way. There has been no case under the Hague in which there has been a judicial submission resulting in any type of access whatsoever. Twenty-nine cases are listed as having been delayed in some way as if these parents who have been working day and night somehow delayed the prosecution of their cases.    They haven't been worked, and yet the number of cases is zero. Using not the test that was testified to by Ambassador Jacobs, but using the test in this act, there is no question that Japan is non-compliant. No question. And, in fact, the narrative does nothing but create a question.    If I am before a judge talking about someone going to Japan for vacation, and the judge asks me, ``Is Japan compliant?'' I have to say yes. I have to say yes. That is what the information provided by what the authoritative--and this is evidential for those of us who are lawyers--source in the world says.    So the very first thing that I would say is that all of this act is dependent upon the report. If the report isn't right, the rest of the remedies, the way it is treated diplomatically, the way it is treated in the Embassies, the way it is treated at the borders, falls apart.    Those are my preliminary remarks, and I am prepared to address any questions that anyone may have with respect to the specifics of either the issues that have been raised or testimony.    I would also mention, there was a question I believe by Mr. Meadows with respect to what type of actions were taken to go through these definitions. And I am speaking on behalf of myself, but I am a member of the American Bar Association's Family Law Section, and have been for many years, and I am member of course of the International Academy of Matrimonial Lawyers. Neither group that I know of was consulted.    I know our working groups on international law were not consulted, and have worked on these issues day and night, as part of our normal professional practices, to walk through why, for example, you would never remove a custody application in a non-Hague case. Please understand, there is no ability to seek the return of a child in a non-Hague case if you do not have the right to determine the child's place of residence. It is the only way to seek the remedy.    To exclude those cases without any explanation is simply to lower the numbers. And, again, I heard the Ambassador talk about the revision of the report as there having been mistakes. I am hoping that that is genuinely the motivation for lowering those numbers as opposed to being forced to address certain of the actions. And, again, there is tremendous discretion in the act.    But the part that I am concerned about is there seems to be a lack of understanding of how important these numbers are outside of just the acts that are associated with the law. It is important in the way that NGOs, in the way that those of us who deal with human rights are able to have discourse with accurate, credible evidence. And the lack of concern about getting these numbers right before the report was issued is stunning to me.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Ms. Apy, thank you very much.    Before we go into Mr. Collins, let me welcome Sheila Jackson Lee, the gentlelady from Texas.</t>
   </si>
   <si>
+    <t>Jackson Lee</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Jackson Lee. Mr. Chairman, let me thank you, and to the chairman of the full committee, ranking member, and all of the witnesses, I will take just a moment to say that I am committed to this issue with every ounce of my abilities. I have been appalled at some of the stories, even in spite of this bill that we worked so hard to pass.    And I think this hearing with Chairman Smith, who has listened to stories along with me, and let me welcome Ms. Rutherford and the other witnesses who have painfully indicated, that this is not about paper or legislative proudness or the fact that a good bill is trying to do a good thing. It is about the passion and love that a parent has for their children and one where they deserve to be able to express that love and affection.    I would just yield back, Mr. Chairman, and say that however we can make the effective tool that the State Department uses to be an effective tool, I think that is what our challenge should be. American citizens should be able to look to their government for relief, even in spite of some of the unusual procedures of our foreign neighbors.    And, with that, let me yield back and commit myself to working on this issue continuously.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Thank you.    Mr. Collins.</t>
   </si>
   <si>
+    <t>Collins</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Collins. Chairman Smith, Chairman Royce, and committee members, thank you for the opportunity to share my story regarding international parental abduction to Japan. Reiko Nakata Greenberg and I were married on September 1, 2000, and on 03/03/03 at 3:03 p.m., my first and only child Keisuke Christian Collins was born in Orange, California.    In March 2008, we started the process of a divorce, and I needed to get my financial records together. I found monthly checks written by Reiko to her Japan Airlines credit card for almost 2 years. Through these cash advances on her personal credit card, and withdrawals from our home equity line, she secretly was able to build a nest egg for herself of over $220,000.    With this new evidence, I went to court in 2008 to stop Reiko from taking Keisuke to Japan for the summer. The judge ruled ``Minor child not to be removed from the County of Orange, State of California, or the United States of America, and turn over the minor's passports to the Japanese Embassy within 24 hours.''    I relayed the court's ruling to the Japanese Embassy in Los Angeles that afternoon. They replied, ``We don't care about your court orders. We won't take the passports. They are Japanese citizens, and they can do what they want.'' I said my son was born and raised in the United States and is a U.S. citizen. He said, ``I don't care.''    Two days later was Father's Day. I picked up Keisuke in the morning for church. We had a Father's Day lunch and spent the afternoon at his favorite place, the Discovery Science Zone. Afterwards, I said, ``Thanks for spending Father's Day with me, Keisuke. I love you. See you tomorrow.'' He said, ``Love you, too, Daddy.'' Those were the last words I heard from my son. That was 2,586 days ago today.    On June 16, 2008, in violation of my court orders, and with the help of her father, Ken Nakata, a retired international pilot with Japan Airlines, Reiko bypassed the system, was able to kidnap Keisuke, and flee to Japan. Reiko Nakata Greenberg Collins has warrants for her arrest by the Orange County Sheriff's Department, is on the FBI's Most Wanted List for Parental Kidnappings, and has a Red Notice issued by Interpol.    Even with these Federal and international warrants in place, the State Department says it can do nothing. I believe it can; it just chooses not to.    Three and a half years later, I was notified that Reiko filed for full and physical legal custody in Japan. In my reply I supplied the restraining order, final divorce decree which awarded me full physical and legal custody, and proof of U.S. jurisdiction of this case. The Japanese court replied by disregarding my final divorce order, stole jurisdiction, and ruled my restraining order, which stated, ``Minor child not to be removed from the County of Orange, State of California, or the United States of America'' was too vague. What word in that sentence is vague? Nothing.    As the Japanese family courts have proven time and time again, they have a bias against Americans. I will call it for what it is: Racism. My case, and the 70 cases listed with BAC Home, occurred prior to Japan becoming a Hague signatory, and, by definition under the Goldman Act, are abduction cases.    To date, children are collectively trapped in Japan and cut off from us. These cases are not resolved, yet the State Department's ICAPRA compliance report unilaterally, and without explanation, decided to downgrade all of them to access cases. To say the ICAPRA report is an insult and a slap in the face of every parent of an abducted child is an understatement.    The numbers do not add up in any way you try, but create an ever-bigger problem as a grossly inaccurate report gives potential abducting parents ammunition to go to court, show any judge that Japan is compliant with the Hague, and nothing can be further from the truth.    With no American child ever being returned by the Japanese Government, nor any ruling in favor of the victimized parent ever enforced by a Japanese court, Japan is non-compliant. Even using State's own numbers, as ridiculous and as ludicrous as they are, Japan is still 57 percent non-compliant, which is greater than the 30 percent Goldman Act standard. Japan is unequivocally non-compliant. Period.    Japan's compliant rating in the report is highly suspect after the recent testimony of the Japanese Diet on May 14 where Takashi Okada, Deputy Director General, and the Secretariat of the Ministry of Foreign Affairs said, ``I think I received Ambassador Jacobs' understanding about how our country has been dealing with the issue of the Hague Convention. The report has not yet been released. As I explained earlier to the Diet members, because we strive to make an explanation to the U.S. side, I hope that the report contents will be based on our country's efforts to deal with the issue.''    The ICAPRA report is not to take into account what Japan tells the Ambassador its efforts are. The report is to be compiled based on facts and results. There are no facts to support Japan as compliant.    For anyone to make any sort of assurance or to accept Japan's explanation, to give it a favorable rating in the report, is outrageous. This report must be amended to show Japan as non-compliant. Over 400 abduction cases to Japan have been registered with the State Department since 1994, and no child has ever been returned by the Japanese Government.    We have suffered years of secrecy from State regarding our abducted children. It is the perfect definition of insanity--doing the same thing over and over again but expecting a different result. The results have not changed in 7 years. We are still no closer to seeing our children today than we were before Japan joined the Hague Abduction Convention. So State's actions, or in this case inactions, speak so loudly we can't hear what they are saying anymore.    I would like this subcommittee to insist that OCI and the State Department be far more transparent with Congress and with victimized parents. We deserve answers. Simply telling the subcommittee that we are raising our cases means nothing. Are they demanding the return of our children or simply begging? Do they drop the issue just because Japan tells them it is too difficult to return our kidnapped children? What are the answers they are receiving?    It is time to start holding Japan accountable. Public condemnation, implementation of sanctions as outlined in the Goldman Act, and the demand that we have access to and the return of our American children immediately. My son, Keisuke Christian Collins, deserves his father, and I deserve my son.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Thank you very much.    Ms. Rutherford.</t>
   </si>
   <si>
+    <t>Rutherford</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Rutherford. Thank you all for being here today. It is wonderful to see your faces and to hear the questions that you asked Ambassador Jacobs. And I know each one of you really believes in this, and it gives us all a lot of hope. I really, really appreciate it.    I would like to thank all of you, Chairman Ed Royce, Chairman Smith, Ranking Member Bass, Congresswoman Sheila Jackson Lee, who has worked on educating the public about my ordeal, and the distinguished members of the subcommittee, and these other gentlemen who I am just meeting today.    Thank you for the opportunity to address you today regarding international parental child abduction, or IPCA, and my ordeal as a parent separated from her children, and my commitment to getting my children back or to stay in this country, and working to educate judges and advocating on behalf of other parents.    My name is Kelly Rutherford, and I am U.S. citizen. My children were born in this country and are American citizens as well. They only hold U.S. passports. In 2012, at the ages of two and five, my children were ordered by a California Judge, Teresa Beaudet, to leave the United States and reside in France and Monaco, two countries where my children do not have citizenship and where they had never lived before.    My kids are here with me in the United States for 5 weeks this summer, and I would like to say I had to go to Monaco to have them give me that, because in my country no one seems to be claiming jurisdiction for my American children, including California, even though they sent them there.    They are currently required to return to Monaco 5 weeks from now, in August. I am testifying here in the hopes that you can help them and similarly situated children to remain in the United States.    If someone had told me when my children were born, which were the two most beautiful days of my life, that one day my children would be ordered by an American judge to leave the United States and live in a foreign country, I would have not believed it. I never thought that what has happened was possible in this country, and there are fellow Americans that come up to me on a daily basis expressing the same disbelief.    In 2008, my ex-husband and I both filed for divorce. We agreed at the time that California would have jurisdiction over the case, even though none of us were living in California at the time. I was under contract in New York to do Gossip Girl. I have since come to doubt whether it was proper for California to handle the case, because nobody in our family had lived there for a long time before the divorce was filed.    My ex-husband made no dispute over money as neither one of us sought support of any kind. The only dispute was over which parent would have primary custody. I assumed it would be me, because I had been the children's primary caregiver throughout their lives. This issue became an international controversy after my ex-husband left the United States before the custody decision was made, and then claimed, through his attorney, that he was unable to return to this country because his work visa had been revoked.    In support of that claim, my ex-husband gave the court a photocopy of a forwarded email that appeared to have been sent to him from the U.S. Embassy in Berlin. The judge took no steps to authenticate the email or contact Federal officials to determine whether the information was true, even though the email contained many irregularities. For example, it was signed by the U.S. Consulate in Berlin, and there is no Consulate in Berlin. There is only an Embassy.    The email also contained no date of visa issuance or visa revocation, both of which are required under Federal law. Despite the email's questionable authenticity, the judge accepted the documents as evidence, and based on that email alone, ruled that my children must leave their own country and reside with their father abroad.    For reasons that remain unclear today, to this day, the judge never asked my ex-husband why he needed a visa to enter the United States, given that he was a German citizen and Germans come to this country every day on passports alone for months at a time. Surely, my ex-husband could have exercised his parental rights in America by coming here on his passports as he did during our marriage, and just as I have used my U.S. passport to travel to France and Monaco over 70 times since 2012 to see my children.    By forcing my kids to leave the United States, the judge ignored my children's rights to live in their own country as granted by the Supreme Court's 1967 decision of Afroyim v. Rusk. And because my children were made to live in a country where they had no citizenship, the judge effectively rendered them nationless, because, as an expert witness explained to the California court, many countries, including Monaco, have provisions in their laws that allow them to reject American court orders and American law generally.    After living in Monaco for a period of time, my children were declared habitual residents of Monaco, subject only to the laws of Monaco. They have now lived there for 3 years. They said it was temporary. Under the UCCJEA, the habitual residence of a child, and not the child's citizenship, determines where they live. Though legal experts tell me that this aspect of the UCCJEA may be unconstitutional as habitual residency cannot trump U.S. citizenship. One of the things that I argued in court was that I would be willing to take the kids to see their Dad in Monaco and France every holiday and all summer until he figured out whatever his work visa situation was. And that was ignored, because then we wouldn't have this problem to begin with, because they would have stayed in their own country.    The judge said that even though the visit to France and Monaco was temporary that if my ex-husband did not obtain a new visa the children would automatically return to this country. I saw that ruling as a hopeful sign that, worst-case scenario, my children would return home in a year or so, either with their father, if he obtained a new visa, or without him, if he did not.    Much to my shock, when I returned to the California court in 2014 to ask that my children be ordered to come home because Max has done nothing to obtain a new visa, a fact that I confirmed through the State Department in 2014, the court denied my request and ruled that it had no authority to address my ex-husband's immigration efforts.    The court then questioned whether it even had jurisdiction anymore, given that nobody had lived in California for many years. This was a curious statement, considering that I had asked that the California court previously to relinquish jurisdiction said that the case would be handled in New York. This is before they were sent there. So we agreed to California jurisdiction because the California court refused to allow me to move the case to New York.    So here I was forced to litigate the case in California, which sent my children away in 2012, but it was now claiming it had no jurisdiction to fix the problem it had caused, and to this day that remains the same.    After that 2014 California ruling, I tried to have the children file their own case in the New York Federal Court, hoping the Federal Government would bring my children home, but that was unsuccessful as well, though we are now asking the Supreme Court to review the decision.    I went to Monaco earlier this year to object to jurisdiction there, and I went back to California again last week asking for the return of my children, but that California judge stated that if I don't live in California, he can't exercise jurisdiction for any purpose, including bringing the children home to America.    This case has developed a very strange legal vacuum where nobody in this country appears willing or able to do anything to help my American children home, bring them home, even though this is the country that sent them away. I can only see this as a legal kidnapping by a California judge, forcing my children to live abroad for so long that the other country seized control over their lives.    How could this be happening? I ask myself. I just ask each of you here today how it is possible that two American citizens have been ordered by their own Government to live in exile in a foreign country. I assume that many of you may have children, and can you only imagine a judge ordering you to put your 2-year-old child on a plane and sending them to live in a foreign country?    There are lots of great countries in the world, and I have traveled to Monaco many times. It is a beautiful, interesting place. But among the wonderful things about this country is that people have a right to choose whether to live here. My children did not choose to leave their own country. I and their court-appointed attorney in California chose for them to remain in the United States.    When they reach the age of maturity, if they want to live abroad, they can do so. Or if both parents make a private family decision to raise their children abroad, they can also do so. But my children are too young to make such a serious decision, and this was not a private family matter. This was a court order commanding my American children to leave the United States.    Congress could fix this problem and help many children and many others simply by codifying what the United States Supreme Court said in 1967, that ex-patriation can never be ordered by any court because choosing to live abroad is an individual right, not a government power. The Supreme Court explained in Afroyim that no right is more fundamental than American citizenship. So I ask all of you here today, aren't my children American citizens?    On behalf of my children, and all American children affected by similar court rulings from family courts all across the country, please do all that you can to make sure that no child is ever forced to leave this wonderful country.    Thank you very much.    [Ms. Rutherford did not submit a prepared statement.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Ms. Rutherford, thank you so very much for your testimony.    Dr. Rahman.</t>
   </si>
   <si>
+    <t>Rahman</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Rahman. I would like to thank Chairman Smith and Mr. Meadows, Ms. Jackson Lee, and other members of the subcommittee, and my representative Congressman Eliot Engel, for giving me this chance to testify.    My name is Dr. Samina Rahman, and I am Abdallah's mother. I am a resident of New York and a citizen of Bangladesh. Today, I will be Abdallah's voice. I will address the human rights violations, crimes, and injustice he and tens of thousands of American children are the silent victims of for decades.    In brief, Abdallah, who is a U.S. citizen by birth, and whose habitual residence is Westchester County, New York, was abducted to India by his own father, Salman Khan, a non-resident Indian citizen, or NRI, who never lived in India prior to seeking a safe haven there in April 2013.    In April 2013, after years of abuse, neglect, and his multiple declarations of divorce, I finally informed my husband that I agreed for divorce. Despite Shariah law, which would grant me sole custody, I promised him shared custody, to be fair to him, to which he responded, ``There is no such thing as shared custody. I will never share my son.''    Later, however, he cried in remorse, and he said he wished to reconcile. I gratefully agreed. A few days later, he announced he was going to Florida to visit his older sister, Arshi Khan. She had ex-communicated me in 2011 after she physically assaulted me and threatened to break my legs and my son's legs and ordered my husband to divorce me and throw me on the street. As a resident training physician, I worked 6 days a week, so I could not have accompanied them to Florida anyway.    Four days later, on the day my son and my ex were expected to return to New York, I received a text message from a United Arab Emirates cell phone number, ``We are in Dubai.'' Two days later, my husband ended all contact with me abruptly. His parents and other siblings, who live only a mile away from my parents' home in the United Arab Emirates, refused to answer my, my parents, and my sister's many phone calls on their many phone numbers. Arshi Khan did not answer any of my calls either.    At a complete loss, I filed a complaint with the Mount Vernon Police Department. They made a phone call to Arshi Khan and asked her if she knew her brother's whereabouts. She said she had no clue. Her lawyer later admitted to the FBI that she had purchased one-way Delta Airlines plane tickets to Dubai for her brother and my son.    However, the very next day, after this call from the police, my husband reestablished contact with me. He claimed I was having an affair and that is why he had to leave me, to protect my son from my immoral ways. He informed me that he had moved to India permanently. I later found out that he had also emailed my employers, my residency program directors, that all my certificates were fake and that I should be fired and deported.    I made many desperate calls at that time, to domestic violence hotlines, the FBI, the NCMEC, the Indian Consulate in New York, the Indian Embassy in Washington, and the United States Department of State. They all advised me to take my matter to family court. My parents then retained a New York lawyer for me, and we petitioned the Westchester County Family Court, since that was my son's habitual residence. However, my ex, despite being duly served, refused to appear in court even via phone, and instead simultaneously initiated custody proceedings in his local district court of Jhansi, India, where he claimed that I was an immoral woman who had abandoned my son and my husband.    My parents then hired a lawyer for me in India on the recommendation of a close friend of theirs in the UAE. My parents, like me, have never lived in India. On the basis of clear death threats, which my husband had made against me and my father, which I had recorded from a Skype video call in May 2013, the Supreme Court of India issued a 3-month stay order on the Jhansi court proceedings, on the district court proceedings.    However, 9 months later, that same Supreme Court of India refused to acknowledge that my son was abducted and ordered that I file a petition for a child custody case in a lower court of the State of Uttar Pradesh, which is a part of the world I have never even visited.    This is in direct contradiction to India's own Constitution. The Guardians and Wards Act of 1890, section 9, clearly states that the court that has the jurisdiction to entertain the application with respect to the guardianship of the minor is the district court of the place where the minor ordinarily resides, which, in my son's case, is the Family Court of Westchester County, New York.    The Supreme Court of India not only asserted jurisdiction over me, a non-Indian who has never lived in India, but also turned a blind eye to the death threats to my father and myself by an Indian citizen and threw out my Westchester Court Family Court order of sole physical custody without a written, unexplained disrespect to the comity of courts.    Am I really expected to hire a lawyer, site unseen, in a country which grants me conditional visit visas of 3 to 6 months at a time? Am I to make that lawyer my power of attorney to represent me in court? Am I expected to wire transfer him tens of thousands of U.S. dollars and then trust in God that he is really making the court appearances he claims he is making?    As a non-Indian who never lived in India, I have no records of tax filing, property ownership, employment, education, or residence in India. So on what basis would an Indian court decide whether I am a fit mother or not?    Tova Haynes-Sengupta from Texas is an American left-behind parent. Like me, she has never lived in India. Her 4-year-old daughter Indira was abducted to India by her ex-husband Susanta Sengupta in December 2013. Due to financial constraints of being a single mother who was a homemaker for the duration of her marriage, and the fact that she is the sole custodial parent of Indira's older brother, she has never been able to, and will never be able to, afford to retain a lawyer in India, nor make trips every 6 months for a court appearance there.    She was awarded sole custody of Indira by the Family Court of Williamson County, Texas, after her ex-husband was found guilty of felony child abuse only months prior to the abduction. There is an unlawful flight to avoid prosecution warrant issued against Susanta Sengupta.    Why are Tova and I being asked to petition the district courts of India for child custody when we have never even lived in India? There are over 30 million cases pending in India's courts today. Ninety percent have been pending for over a year, and over half of them have been pending over 5 years. So why am I being forced to be pending case number 30 million and one?    Since April 2013, I have been allowed to speak to my son only 12 times. Despite the false claims of an Office of Children's Issues welfare report from July 2013, my son is not allowed to call me, and all my calls to him are screened by his father. It has been 27 months since I last looked into my own son's eyes. I breast-fed him exclusively for over 3 years until he outgrew his cow's milk allergy. I taught him to read, write, pray, ride a bike.    My son, my ex, and I lived with my parents for most of my married life. I worked hard on my career as a physician, so that I could provide myself and my son with security and our home someday, since my husband was unemployed, though he is also a medical graduate.    People often ask me, ``How did your ex get your son past five international airports without a notarized consent letter from you?'' So I went online and discovered that while the Customs and Border Patrol recommends such a letter, it does not require such a letter. The U.S.A. has no exit controls for people; only for bottles of shampoo over four ounces.    Americans then ask me, ``Why don't you talk to the State Department and they will bring your child back,'' which could not be further from the truth. Left-behind parents like myself of American children who have been abducted to India have all had the same experience in our responses from the U.S. Department of State's Office of Children's Issues.    In December 2014, 4 months after the Goldman Act was signed into law, I emailed my OCI caseworker to have my son deported back to the U.S.--I thought it was a great idea--because he is an American minor living in India on a fraudulently acquired residence visa, or overseas citizen card, which by Indian law requires the notarized consent of both parents of the minor.    And this is the response I got from my caseworker, and I quote,        ``The Department of State does not have the authority         under U.S. law to inform India that a foreigner is         residing there illegally, or to request their         deportation. I encourage you to consult with your         attorney about the best way to inform the Indian court         and the Ministry of Home Affairs, Foreigners Division,         about Abdallah's legal status in India.''    They continue to write,        ``The Sean and David Goldman Act, ICAPRA, grants the         Department of State the authority to employ a full         range of diplomatic tools to improve cooperation with         India on resolving all cases of international parental         child abduction. We strategically tailor our bilateral         efforts to India's unique legal and political system.         While I cannot share government-to-government         communications concerning the status of bilateral         efforts or procedures, I can assure you that we will         seek opportunities to utilize the tools enumerated in         the new law.''    I was elated to learn that consequent to the Goldman Act there were now bilateral efforts and procedures, and government-to-government communications ongoing between India and the U.S. State Department. Finally, there was hope for parents of children abducted to non-Hague Convention countries.    However, in May 2015, on reading the 2015 annual report, we left-behind parents were devastated to discover that there are still no bilateral procedures in place between India and the U.S., according to the report, whereas section 103 of the Goldman Act clearly states not later than 180 days after the date of the enactment of this act, which should have been 5 months ago, the Secretary of State shall initiate a process to develop bilateral procedures, including MOU, which include identification of the central authority, which was not done; identification of the judicial and administrative authority that would promptly adjudicate abduction and access cases, which was also not done; and identification of the law enforcement agencies, not done.    We at Bring Our Kids Home are outraged to learn that our children's cases have been open with the State Department for years, but have still not been reported to the Government of India. Three years after Reyansh Parmar was abducted, 2 years after Abdallah Khan and Nikhita Jagtiani were abducted, yet to date the OCI has submitted no application to the Government of India for any of these children.    What prevents the State Department from reporting these cases to the Government of India? Child abduction is a crime in India under Indian Penal Code 361, punishable by up to 7 years in prison. And both the Ministry of Women and Child Development and the National Commission for the Protection of Children's Rights are mandated by the Indian Constitution itself, to uphold the United Nations Convention on the Rights of the Child, which India ratified in 1992, which states that India has committed itself to, ``Take measures, including the conclusion of bilateral and multilateral agreements, to combat child abduction and the non-return of children abroad.'' This is referring to Articles 11 and 35 of the UNCRC.    The case of Avinash Kulkarni from California is now 25 years old. His son Soumitra, who was abducted at age 6 months in 1990, is now 25 years old and is completely alienated from his distraught father who says that his life stopped the day his son was abducted 25 years ago.    Twenty-five years later, there is still no bilateral agreement in place between India and the U.S. to address IPCA, which is a crime, an act of child abuse, and a terrible violation of children's rights and parental rights. The numbers in the 2015 annual report by the State Department are inexplicable. Nineteen new abduction cases were reported in calendar year 2014. None were reported to a foreign central authority, yet 22 cases are reported as resolved.    What is probably the most alarming is that although India is listed as non-compliant, the only remedial measure recommended by the State Department is D, encourage India to sign the Hague.    India has a long and well-documented history of treating parental abduction cases as routine custody cases, disregarding custody court orders from jurisdictions where the child was habitually a resident and relitigating those decisions in India for several years and millions of rupees. The only person who consistently wins in India is the abducting parent.    It is no secret that our children are abducted to India precisely because of the legal and cultural environment prevalent in India for decades that provides a safe haven for abductors, where they can about their daily lives as if they never committed a crime.    Abducted children from the United States and from around the world are rarely returned by Indian courts. So why wouldn't the State Department choose to apply the full range of Goldman Act recommendations to address their non-compliance, including (A) training, the State Department promotes training with judicial and administrative authorities on the effective handling of international parental child abduction cases; (B) training with law enforcement entities on how to effectively locate children and enforce court-ordered returns; (F) Department officials intensify engagement with the foreign central authorities for updates on IPCA cases and to promote prompt case processing.    While we left-behind parents live a nightmare every waking moment, what really kills us inside is that we know our children suffer far more than us. They were pulled out of their homes at the most tender age, cruelly deprived of a mother or father's nuture, removed from their family, friends, their pets, their school.    Overnight they find themselves in a new country where they are thrust into a new living situation, a new school, with a foreign language and foreign customs, where they must always be stigmatized and bullied as the Indo-American child whose American parent abandoned them.    They are brainwashed by the abducting parent that they have been abandoned and are already forgotten by the left-behind parent. And they are forced to turn against their left-behind parent in violation of their every natural instinct to love and be loyal to both parents.    My own son was snatched from me at age 6 and is now being cared for by a maid who probably did not attend school, who cannot even communicate with my son. When I last spoke to my son a few months ago, he only knows English. He doesn't know any Hindi.    I am also shocked at how the school that my son was enrolled in, the Delhi Public School, which is one of the best schools of India with several international branches, has enrolled my son without my ex-husband providing a transfer, a school leaving certificate, from Abdallah's elementary school in New York, without providing recent report cards, immunization records, none of that, all of which are typically required by the Board of Education for enrollment of children between grades one and six.    Is it not incumbent on every civilized society to protect its most vulnerable citizens? We at Bring Our Kids Home understand that this is a new era for the strategic partnership between the United States and India. Forward together we go. Chalein Saath Saath.    The two largest democracies of the world have agreed to work together, not only for the benefit of both nations but for the benefit of the world. Together we seek a reliable and enduring friendship.    However, our leaders must never forget Gandhi's words, the seven deadly social sins, including politics without principle, and commerce without morality. Our children need not be considered as sacrifices to the altar of commerce.    A true friend will tell you the truth about yourself and use it to empower you, not to belittle or destroy you. The question is: Does the United States have the courage to make the human rights and security of American children a priority and tell the truth? And does India have the will to lead by actions, not just by words?</t>
   </si>
   <si>
@@ -488,6 +530,9 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Thank you very much, Dr. Rahman.    Ms. McGee.</t>
+  </si>
+  <si>
+    <t>McGee</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. McGee. Thank you. Thank you for giving me this opportunity to speak today. I would like to start out by saying that my children are being illegally retained in Japan by Sean McGee currently employed at Nomura Securities. Under the International Parental Kidnapping Crime Act (IPKCA), he has been retaining them outside the U.S. with the intent to obstruct the lawful exercise of my parental rights.    My children, Brendan, MaryKate, Jack, and Megan are all natural born U.S. citizens, holding only U.S. passports. Sean and I are also natural born U.S. citizens, holding only U.S. passports. We are not Japanese.    My husband, Sean McGee, works for Nomura Securities. He has been retaining my children against my will since December 2012, and has not allowed them to return to the United States in over 3 years. This is not about a custody dispute. This is about my children's right to be with and be loved by both parents.    Much has transpired over the 3-plus years, most notably the fact that after an 8-day plenary hearing Judge Matthew Curry ruled that my children and I are all bona fide habitual residents of New Jersey. Jurisdiction in the State of New Jersey. Why is it so difficult to bring my American children home to the United States?    The State Department, via the Sean Goldman Act, released its first annual report on countries that refuse to return American children who have been abducted or retained by a parent abroad. Conspicuously absent from this list was the worst offender, Japan. Japan has never enforced or issued a return order for any American child being held captive there.    This scenario of one parent violating the wishes of another parent by retaining children in Japan has been going on for many years. Japan is a black hole for child abduction. All members of the McGee family are American, and they are being held hostage by their father in Japan.    Sean has been able to live a very extravagant lifestyle in Japan, thanks to his employer, Nomura Securities. He vacations regularly to Phuket, Australia, India, Hong Kong, Korea, London, and Portugal. His lavish apartment costs $14,000 per month. At the same time, our youngest daughter Megan and I were on food stamps for over a year. The gas company, PSE&amp;G, shut our power off.    Sean has not been following through with the court orders that are required of him. He is court ordered to pay my legal fees. My lawyers are no longer representing me due to his willful neglect in payment. In addition, he was court ordered to pay the mortgage on the family home. Our home is currently in foreclosure due to his willful neglect in payment. Not only do I have no one to represent me, but I had to file bankruptcy as well. Sean is breaking the law on many levels.    Our family unit has been torn apart physically and emotionally. Not only are they held captive in Japan, but they are now victims of Sean's mental abuse. His campaign to alienate them from me and my entire family will cause lasting repercussions. The children are in grave danger due to his alcoholism and lack of supervision. Many nights they are left home alone while he is out drinking in Tokyo. The truth is that the children are struggling immensely in many areas affecting their lives, including academic, mental health, and substance abuse.    Last September, my father died, my children's grandpa, Vincent Cianciotto. Sean did not permit them to come home to attend his funeral. The role of their grandpa was one to be admired, for he took on a fatherly role for them their entire life due to Sean's lack of the ability in this area.    It pains me as a mother to be so far removed and not be able to comfort them and love them, as I have done their entire lives. You cannot imagine waking up each and every day not being able to be with your children. I miss every aspect of their being, their smiles, their laughter, and their tears.    If there are any parents in the room today, I ask you to close your eyes and envision one day where you wake up and have no idea what is transpiring in the life of your child. That is what I have been experiencing every day for the past 2\\1/2\\ years. A void that needs to be filled. No loving parent should have to experience this.    Japan and Nomura Securities, you are aiding and abetting a child abductor and abuser. Send my children home.    Thank you for allowing me this opportunity to tell my personal story. I hope this helps to bring awareness of the situation in order to return all our American children home.    Thank you.</t>
@@ -1076,7 +1121,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H226"/>
+  <dimension ref="A1:I226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1084,7 +1129,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1106,5405 +1151,6429 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
       <c r="H35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
       <c r="H39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
       <c r="H41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
       <c r="H42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
       <c r="H43" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
       <c r="H44" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
       <c r="H45" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I45" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
       <c r="H46" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
       <c r="H47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I47" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
       <c r="H48" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I48" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
       <c r="H49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
       <c r="H50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
       <c r="H51" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
       <c r="H52" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I52" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
       <c r="H53" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
       <c r="H54" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
       <c r="H55" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I55" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
       <c r="H56" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
       <c r="H57" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I57" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
       <c r="H58" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
       <c r="H59" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I59" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
       <c r="H60" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I60" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
       <c r="H61" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I61" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
       <c r="H62" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I62" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>17</v>
+      </c>
       <c r="H63" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I63" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>17</v>
+      </c>
       <c r="H64" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I64" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>17</v>
+      </c>
       <c r="H65" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I65" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G66" t="s">
+        <v>17</v>
+      </c>
       <c r="H66" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I66" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s">
+        <v>17</v>
+      </c>
       <c r="H67" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I67" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G68" t="s">
+        <v>17</v>
+      </c>
       <c r="H68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I68" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G69" t="s">
+        <v>17</v>
+      </c>
       <c r="H69" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I69" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
       <c r="H70" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I70" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G71" t="s">
+        <v>17</v>
+      </c>
       <c r="H71" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I71" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G72" t="s">
+        <v>17</v>
+      </c>
       <c r="H72" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I72" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G73" t="s">
+        <v>17</v>
+      </c>
       <c r="H73" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I73" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>13</v>
+      </c>
       <c r="H74" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>86</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G75" t="s">
+        <v>92</v>
+      </c>
       <c r="H75" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I75" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>86</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G76" t="s">
+        <v>92</v>
+      </c>
       <c r="H76" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I76" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>86</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G77" t="s">
+        <v>92</v>
+      </c>
       <c r="H77" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I77" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>86</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G78" t="s">
+        <v>92</v>
+      </c>
       <c r="H78" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I78" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>86</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G79" t="s">
+        <v>92</v>
+      </c>
       <c r="H79" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I79" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>86</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G80" t="s">
+        <v>92</v>
+      </c>
       <c r="H80" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I80" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>86</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G81" t="s">
+        <v>92</v>
+      </c>
       <c r="H81" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="I81" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>86</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G82" t="s">
+        <v>92</v>
+      </c>
       <c r="H82" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I82" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>86</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G83" t="s">
+        <v>92</v>
+      </c>
       <c r="H83" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I83" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>86</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G84" t="s">
+        <v>92</v>
+      </c>
       <c r="H84" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I84" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>86</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G85" t="s">
+        <v>92</v>
+      </c>
       <c r="H85" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I85" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>86</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G86" t="s">
+        <v>92</v>
+      </c>
       <c r="H86" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I86" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>86</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G87" t="s">
+        <v>92</v>
+      </c>
       <c r="H87" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I87" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>86</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G88" t="s">
+        <v>92</v>
+      </c>
       <c r="H88" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I88" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>86</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G89" t="s">
+        <v>92</v>
+      </c>
       <c r="H89" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I89" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>86</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G90" t="s">
+        <v>92</v>
+      </c>
       <c r="H90" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I90" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>86</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G91" t="s">
+        <v>92</v>
+      </c>
       <c r="H91" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I91" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>86</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G92" t="s">
+        <v>92</v>
+      </c>
       <c r="H92" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I92" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>86</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G93" t="s">
+        <v>92</v>
+      </c>
       <c r="H93" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I93" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>86</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G94" t="s">
+        <v>92</v>
+      </c>
       <c r="H94" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I94" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>86</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G95" t="s">
+        <v>92</v>
+      </c>
       <c r="H95" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I95" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>86</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G96" t="s">
+        <v>92</v>
+      </c>
       <c r="H96" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I96" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>86</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G97" t="s">
+        <v>92</v>
+      </c>
       <c r="H97" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I97" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>86</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G98" t="s">
+        <v>92</v>
+      </c>
       <c r="H98" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I98" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>86</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G99" t="s">
+        <v>92</v>
+      </c>
       <c r="H99" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I99" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>86</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G100" t="s">
+        <v>92</v>
+      </c>
       <c r="H100" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I100" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>86</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G101" t="s">
+        <v>92</v>
+      </c>
       <c r="H101" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I101" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>86</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G102" t="s">
+        <v>92</v>
+      </c>
       <c r="H102" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I102" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>86</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G103" t="s">
+        <v>92</v>
+      </c>
       <c r="H103" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I103" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>86</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G104" t="s">
+        <v>92</v>
+      </c>
       <c r="H104" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I104" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>86</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G105" t="s">
+        <v>92</v>
+      </c>
       <c r="H105" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I105" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>86</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G106" t="s">
+        <v>92</v>
+      </c>
       <c r="H106" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I106" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>86</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G107" t="s">
+        <v>92</v>
+      </c>
       <c r="H107" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I107" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>86</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G108" t="s">
+        <v>92</v>
+      </c>
       <c r="H108" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I108" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>13</v>
+      </c>
       <c r="H109" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>13</v>
+      </c>
       <c r="H110" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I110" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>13</v>
+      </c>
       <c r="H111" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I111" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>13</v>
+      </c>
       <c r="H112" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I112" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>13</v>
+      </c>
       <c r="H113" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>13</v>
+      </c>
       <c r="H114" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I114" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>13</v>
+      </c>
       <c r="H115" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I115" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>13</v>
+      </c>
       <c r="H116" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I116" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>13</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G117" t="s">
+        <v>17</v>
+      </c>
       <c r="H117" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I117" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>13</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G118" t="s">
+        <v>17</v>
+      </c>
       <c r="H118" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I118" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>13</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G119" t="s">
+        <v>17</v>
+      </c>
       <c r="H119" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I119" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>13</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G120" t="s">
+        <v>17</v>
+      </c>
       <c r="H120" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I120" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>11</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>13</v>
+      </c>
       <c r="H121" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I121" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>11</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G122" t="s">
+        <v>13</v>
+      </c>
       <c r="H122" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I122" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>135</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G123" t="s">
+        <v>143</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>11</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G124" t="s">
+        <v>13</v>
+      </c>
       <c r="H124" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I124" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>135</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G125" t="s">
+        <v>143</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
+        <v>13</v>
+      </c>
       <c r="H126" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>135</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G127" t="s">
+        <v>148</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>135</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G128" t="s">
+        <v>150</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>11</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G129" t="s">
+        <v>13</v>
+      </c>
       <c r="H129" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I129" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>135</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G130" t="s">
+        <v>153</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>11</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G131" t="s">
+        <v>13</v>
+      </c>
       <c r="H131" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I131" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>135</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G132" t="s">
+        <v>156</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>11</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G133" t="s">
+        <v>13</v>
+      </c>
       <c r="H133" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I133" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>135</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G134" t="s">
+        <v>159</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>11</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G135" t="s">
+        <v>13</v>
+      </c>
       <c r="H135" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I135" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>135</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G136" t="s">
+        <v>162</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>11</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G137" t="s">
+        <v>13</v>
+      </c>
       <c r="H137" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I137" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>135</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G138" t="s">
+        <v>162</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>11</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G139" t="s">
+        <v>13</v>
+      </c>
       <c r="H139" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I139" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>135</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G140" t="s">
+        <v>162</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>11</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G141" t="s">
+        <v>13</v>
+      </c>
       <c r="H141" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I141" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G142" t="s">
+        <v>13</v>
+      </c>
       <c r="H142" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I142" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>135</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G143" t="s">
+        <v>162</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G144" t="s">
+        <v>13</v>
+      </c>
       <c r="H144" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I144" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>135</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G145" t="s">
+        <v>172</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>11</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G146" t="s">
+        <v>13</v>
+      </c>
       <c r="H146" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I146" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>135</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G147" t="s">
+        <v>159</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>11</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G148" t="s">
+        <v>13</v>
+      </c>
       <c r="H148" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I148" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>135</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G149" t="s">
+        <v>159</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>11</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G150" t="s">
+        <v>13</v>
+      </c>
       <c r="H150" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I150" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>135</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G151" t="s">
+        <v>159</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>11</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G152" t="s">
+        <v>13</v>
+      </c>
       <c r="H152" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I152" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>135</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G153" t="s">
+        <v>159</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>11</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G154" t="s">
+        <v>13</v>
+      </c>
       <c r="H154" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I154" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>135</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G155" t="s">
+        <v>159</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>11</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G156" t="s">
+        <v>13</v>
+      </c>
       <c r="H156" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I156" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>135</v>
-      </c>
-      <c r="G157" t="s"/>
-      <c r="H157" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G157" t="s">
+        <v>150</v>
+      </c>
+      <c r="H157" t="s"/>
+      <c r="I157" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>11</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G158" t="s">
+        <v>13</v>
+      </c>
       <c r="H158" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I158" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>135</v>
-      </c>
-      <c r="G159" t="s"/>
-      <c r="H159" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G159" t="s">
+        <v>156</v>
+      </c>
+      <c r="H159" t="s"/>
+      <c r="I159" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>11</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G160" t="s">
+        <v>13</v>
+      </c>
       <c r="H160" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I160" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>135</v>
-      </c>
-      <c r="G161" t="s"/>
-      <c r="H161" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G161" t="s">
+        <v>156</v>
+      </c>
+      <c r="H161" t="s"/>
+      <c r="I161" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>11</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G162" t="s">
+        <v>13</v>
+      </c>
       <c r="H162" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I162" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>135</v>
-      </c>
-      <c r="G163" t="s"/>
-      <c r="H163" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G163" t="s">
+        <v>156</v>
+      </c>
+      <c r="H163" t="s"/>
+      <c r="I163" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>11</v>
-      </c>
-      <c r="G164" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G164" t="s">
+        <v>13</v>
+      </c>
       <c r="H164" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I164" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>135</v>
-      </c>
-      <c r="G165" t="s"/>
-      <c r="H165" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G165" t="s">
+        <v>172</v>
+      </c>
+      <c r="H165" t="s"/>
+      <c r="I165" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>11</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G166" t="s">
+        <v>13</v>
+      </c>
       <c r="H166" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I166" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>86</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G167" t="s">
+        <v>92</v>
+      </c>
       <c r="H167" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I167" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>135</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G168" t="s">
+        <v>150</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>86</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G169" t="s">
+        <v>92</v>
+      </c>
       <c r="H169" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I169" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>135</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G170" t="s">
+        <v>156</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>86</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G171" t="s">
+        <v>92</v>
+      </c>
       <c r="H171" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I171" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>135</v>
-      </c>
-      <c r="G172" t="s"/>
-      <c r="H172" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G172" t="s">
+        <v>159</v>
+      </c>
+      <c r="H172" t="s"/>
+      <c r="I172" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>86</v>
-      </c>
-      <c r="G173" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G173" t="s">
+        <v>92</v>
+      </c>
       <c r="H173" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I173" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>135</v>
-      </c>
-      <c r="G174" t="s"/>
-      <c r="H174" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G174" t="s">
+        <v>159</v>
+      </c>
+      <c r="H174" t="s"/>
+      <c r="I174" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>86</v>
-      </c>
-      <c r="G175" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G175" t="s">
+        <v>92</v>
+      </c>
       <c r="H175" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I175" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>135</v>
-      </c>
-      <c r="G176" t="s"/>
-      <c r="H176" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G176" t="s">
+        <v>159</v>
+      </c>
+      <c r="H176" t="s"/>
+      <c r="I176" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>86</v>
-      </c>
-      <c r="G177" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G177" t="s">
+        <v>92</v>
+      </c>
       <c r="H177" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I177" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>135</v>
-      </c>
-      <c r="G178" t="s"/>
-      <c r="H178" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G178" t="s">
+        <v>162</v>
+      </c>
+      <c r="H178" t="s"/>
+      <c r="I178" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>86</v>
-      </c>
-      <c r="G179" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G179" t="s">
+        <v>92</v>
+      </c>
       <c r="H179" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I179" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>135</v>
-      </c>
-      <c r="G180" t="s"/>
-      <c r="H180" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G180" t="s">
+        <v>162</v>
+      </c>
+      <c r="H180" t="s"/>
+      <c r="I180" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>86</v>
-      </c>
-      <c r="G181" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G181" t="s">
+        <v>92</v>
+      </c>
       <c r="H181" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I181" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>135</v>
-      </c>
-      <c r="G182" t="s"/>
-      <c r="H182" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G182" t="s">
+        <v>162</v>
+      </c>
+      <c r="H182" t="s"/>
+      <c r="I182" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>86</v>
-      </c>
-      <c r="G183" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G183" t="s">
+        <v>92</v>
+      </c>
       <c r="H183" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I183" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>135</v>
-      </c>
-      <c r="G184" t="s"/>
-      <c r="H184" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G184" t="s">
+        <v>162</v>
+      </c>
+      <c r="H184" t="s"/>
+      <c r="I184" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>86</v>
-      </c>
-      <c r="G185" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G185" t="s">
+        <v>92</v>
+      </c>
       <c r="H185" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I185" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>135</v>
-      </c>
-      <c r="G186" t="s"/>
-      <c r="H186" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G186" t="s">
+        <v>172</v>
+      </c>
+      <c r="H186" t="s"/>
+      <c r="I186" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>86</v>
-      </c>
-      <c r="G187" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G187" t="s">
+        <v>92</v>
+      </c>
       <c r="H187" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I187" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>135</v>
-      </c>
-      <c r="G188" t="s"/>
-      <c r="H188" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G188" t="s">
+        <v>172</v>
+      </c>
+      <c r="H188" t="s"/>
+      <c r="I188" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>86</v>
-      </c>
-      <c r="G189" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G189" t="s">
+        <v>92</v>
+      </c>
       <c r="H189" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I189" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>135</v>
-      </c>
-      <c r="G190" t="s"/>
-      <c r="H190" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G190" t="s">
+        <v>172</v>
+      </c>
+      <c r="H190" t="s"/>
+      <c r="I190" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>86</v>
-      </c>
-      <c r="G191" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G191" t="s">
+        <v>92</v>
+      </c>
       <c r="H191" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I191" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>135</v>
-      </c>
-      <c r="G192" t="s"/>
-      <c r="H192" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G192" t="s">
+        <v>172</v>
+      </c>
+      <c r="H192" t="s"/>
+      <c r="I192" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>86</v>
-      </c>
-      <c r="G193" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G193" t="s">
+        <v>92</v>
+      </c>
       <c r="H193" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I193" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>11</v>
-      </c>
-      <c r="G194" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G194" t="s">
+        <v>13</v>
+      </c>
       <c r="H194" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I194" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>135</v>
-      </c>
-      <c r="G195" t="s"/>
-      <c r="H195" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G195" t="s">
+        <v>162</v>
+      </c>
+      <c r="H195" t="s"/>
+      <c r="I195" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>11</v>
-      </c>
-      <c r="G196" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G196" t="s">
+        <v>13</v>
+      </c>
       <c r="H196" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I196" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>135</v>
-      </c>
-      <c r="G197" t="s"/>
-      <c r="H197" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G197" t="s">
+        <v>162</v>
+      </c>
+      <c r="H197" t="s"/>
+      <c r="I197" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>11</v>
-      </c>
-      <c r="G198" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G198" t="s">
+        <v>13</v>
+      </c>
       <c r="H198" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I198" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>135</v>
-      </c>
-      <c r="G199" t="s"/>
-      <c r="H199" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G199" t="s">
+        <v>162</v>
+      </c>
+      <c r="H199" t="s"/>
+      <c r="I199" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>11</v>
-      </c>
-      <c r="G200" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G200" t="s">
+        <v>13</v>
+      </c>
       <c r="H200" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I200" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>135</v>
-      </c>
-      <c r="G201" t="s"/>
-      <c r="H201" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G201" t="s">
+        <v>172</v>
+      </c>
+      <c r="H201" t="s"/>
+      <c r="I201" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>11</v>
-      </c>
-      <c r="G202" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G202" t="s">
+        <v>13</v>
+      </c>
       <c r="H202" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I202" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>135</v>
-      </c>
-      <c r="G203" t="s"/>
-      <c r="H203" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G203" t="s">
+        <v>159</v>
+      </c>
+      <c r="H203" t="s"/>
+      <c r="I203" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>11</v>
-      </c>
-      <c r="G204" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G204" t="s">
+        <v>13</v>
+      </c>
       <c r="H204" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I204" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F205" t="s">
-        <v>135</v>
-      </c>
-      <c r="G205" t="s"/>
-      <c r="H205" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G205" t="s">
+        <v>159</v>
+      </c>
+      <c r="H205" t="s"/>
+      <c r="I205" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F206" t="s">
-        <v>11</v>
-      </c>
-      <c r="G206" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G206" t="s">
+        <v>13</v>
+      </c>
       <c r="H206" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I206" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F207" t="s">
-        <v>135</v>
-      </c>
-      <c r="G207" t="s"/>
-      <c r="H207" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G207" t="s">
+        <v>150</v>
+      </c>
+      <c r="H207" t="s"/>
+      <c r="I207" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F208" t="s">
-        <v>135</v>
-      </c>
-      <c r="G208" t="s"/>
-      <c r="H208" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G208" t="s">
+        <v>159</v>
+      </c>
+      <c r="H208" t="s"/>
+      <c r="I208" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F209" t="s">
-        <v>11</v>
-      </c>
-      <c r="G209" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G209" t="s">
+        <v>13</v>
+      </c>
       <c r="H209" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I209" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F210" t="s">
-        <v>135</v>
-      </c>
-      <c r="G210" t="s"/>
-      <c r="H210" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G210" t="s">
+        <v>159</v>
+      </c>
+      <c r="H210" t="s"/>
+      <c r="I210" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F211" t="s">
-        <v>11</v>
-      </c>
-      <c r="G211" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G211" t="s">
+        <v>13</v>
+      </c>
       <c r="H211" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I211" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F212" t="s">
-        <v>135</v>
-      </c>
-      <c r="G212" t="s"/>
-      <c r="H212" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G212" t="s">
+        <v>159</v>
+      </c>
+      <c r="H212" t="s"/>
+      <c r="I212" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F213" t="s">
-        <v>86</v>
-      </c>
-      <c r="G213" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G213" t="s">
+        <v>92</v>
+      </c>
       <c r="H213" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I213" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F214" t="s">
-        <v>135</v>
-      </c>
-      <c r="G214" t="s"/>
-      <c r="H214" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G214" t="s">
+        <v>159</v>
+      </c>
+      <c r="H214" t="s"/>
+      <c r="I214" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F215" t="s">
-        <v>86</v>
-      </c>
-      <c r="G215" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G215" t="s">
+        <v>92</v>
+      </c>
       <c r="H215" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I215" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F216" t="s">
-        <v>135</v>
-      </c>
-      <c r="G216" t="s"/>
-      <c r="H216" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G216" t="s">
+        <v>159</v>
+      </c>
+      <c r="H216" t="s"/>
+      <c r="I216" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E217" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F217" t="s">
-        <v>11</v>
-      </c>
-      <c r="G217" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G217" t="s">
+        <v>13</v>
+      </c>
       <c r="H217" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I217" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D218" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E218" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F218" t="s">
-        <v>135</v>
-      </c>
-      <c r="G218" t="s"/>
-      <c r="H218" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G218" t="s">
+        <v>159</v>
+      </c>
+      <c r="H218" t="s"/>
+      <c r="I218" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D219" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E219" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F219" t="s">
-        <v>11</v>
-      </c>
-      <c r="G219" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G219" t="s">
+        <v>13</v>
+      </c>
       <c r="H219" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I219" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E220" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F220" t="s">
-        <v>135</v>
-      </c>
-      <c r="G220" t="s"/>
-      <c r="H220" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G220" t="s">
+        <v>159</v>
+      </c>
+      <c r="H220" t="s"/>
+      <c r="I220" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E221" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F221" t="s">
-        <v>11</v>
-      </c>
-      <c r="G221" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G221" t="s">
+        <v>13</v>
+      </c>
       <c r="H221" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I221" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E222" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F222" t="s">
-        <v>135</v>
-      </c>
-      <c r="G222" t="s"/>
-      <c r="H222" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G222" t="s">
+        <v>159</v>
+      </c>
+      <c r="H222" t="s"/>
+      <c r="I222" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D223" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E223" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F223" t="s">
-        <v>11</v>
-      </c>
-      <c r="G223" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G223" t="s">
+        <v>13</v>
+      </c>
       <c r="H223" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I223" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D224" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E224" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F224" t="s">
-        <v>135</v>
-      </c>
-      <c r="G224" t="s"/>
-      <c r="H224" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G224" t="s">
+        <v>150</v>
+      </c>
+      <c r="H224" t="s"/>
+      <c r="I224" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D225" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E225" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F225" t="s">
-        <v>135</v>
-      </c>
-      <c r="G225" t="s"/>
-      <c r="H225" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="G225" t="s">
+        <v>159</v>
+      </c>
+      <c r="H225" t="s"/>
+      <c r="I225" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D226" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E226" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F226" t="s">
-        <v>11</v>
-      </c>
-      <c r="G226" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G226" t="s">
+        <v>13</v>
+      </c>
       <c r="H226" t="s">
-        <v>237</v>
+        <v>14</v>
+      </c>
+      <c r="I226" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95517.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95517.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="256">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400380</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -65,6 +71,9 @@
   </si>
   <si>
     <t>412470</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Cicilline</t>
@@ -1121,7 +1130,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I226"/>
+  <dimension ref="A1:J226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1129,7 +1138,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1154,6426 +1163,7000 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G42" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H45" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G46" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H47" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I48" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H50" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J50" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G51" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H51" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G52" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I52" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G53" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I53" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J54" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G55" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H55" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I55" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J55" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H56" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I56" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G57" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H57" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I57" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J57" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G58" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H58" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I58" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J58" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G59" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H59" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I59" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J59" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G60" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H60" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J60" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G61" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H61" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J61" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G62" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H62" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I62" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G63" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H63" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I63" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J63" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G64" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H64" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I64" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G65" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H65" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J65" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G66" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H66" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I66" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J66" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G67" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H67" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I67" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J67" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G68" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H68" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I68" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J68" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G69" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H69" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I69" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J69" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G70" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H70" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I70" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J70" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G71" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H71" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I71" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J71" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G72" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H72" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I72" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J72" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G73" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H73" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I73" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J73" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I74" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J74" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G75" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H75" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I75" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J75" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G76" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H76" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I76" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J76" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G77" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H77" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I77" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="J77" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G78" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H78" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I78" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J78" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G79" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H79" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I79" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J79" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G80" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H80" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I80" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J80" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G81" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H81" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I81" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J81" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G82" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H82" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I82" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J82" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G83" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H83" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I83" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J83" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G84" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H84" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I84" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J84" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G85" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H85" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I85" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J85" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G86" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H86" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I86" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J86" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G87" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H87" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I87" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J87" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G88" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H88" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I88" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J88" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G89" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H89" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I89" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J89" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G90" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H90" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I90" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J90" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G91" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H91" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I91" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J91" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G92" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H92" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I92" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J92" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G93" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H93" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I93" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J93" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G94" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H94" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I94" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J94" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G95" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H95" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I95" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J95" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G96" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H96" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I96" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J96" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G97" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H97" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I97" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J97" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G98" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H98" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I98" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J98" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G99" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H99" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I99" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J99" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G100" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H100" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I100" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J100" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G101" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H101" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I101" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J101" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G102" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H102" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I102" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J102" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G103" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H103" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I103" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J103" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G104" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H104" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I104" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J104" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G105" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H105" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I105" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J105" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G106" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H106" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I106" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J106" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G107" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H107" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I107" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J107" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G108" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H108" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I108" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J108" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I109" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J109" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I110" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J110" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I111" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J111" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I112" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J112" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I113" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J113" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I114" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J114" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I115" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J115" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I116" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J116" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G117" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H117" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I117" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J117" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G118" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H118" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I118" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J118" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G119" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H119" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I119" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J119" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G120" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H120" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I120" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J120" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G121" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H121" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I121" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J121" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I122" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J122" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>142</v>
-      </c>
-      <c r="G123" t="s">
-        <v>143</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>146</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I124" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J124" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>142</v>
-      </c>
-      <c r="G125" t="s">
-        <v>143</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
+        <v>145</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="126" spans="1:9">
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I126" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J126" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>142</v>
-      </c>
-      <c r="G127" t="s">
-        <v>148</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>151</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>142</v>
-      </c>
-      <c r="G128" t="s">
-        <v>150</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>153</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G129" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I129" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J129" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>142</v>
-      </c>
-      <c r="G130" t="s">
-        <v>153</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>156</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G131" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I131" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J131" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>142</v>
-      </c>
-      <c r="G132" t="s">
-        <v>156</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>159</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G133" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I133" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J133" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>142</v>
-      </c>
-      <c r="G134" t="s">
-        <v>159</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>162</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G135" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I135" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J135" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>142</v>
-      </c>
-      <c r="G136" t="s">
-        <v>162</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>165</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G137" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I137" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J137" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>142</v>
-      </c>
-      <c r="G138" t="s">
-        <v>162</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
+        <v>145</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="139" spans="1:9">
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G139" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I139" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J139" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>142</v>
-      </c>
-      <c r="G140" t="s">
-        <v>162</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>165</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G141" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H141" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I141" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J141" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I142" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J142" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>142</v>
-      </c>
-      <c r="G143" t="s">
-        <v>162</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>165</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G144" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I144" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J144" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>142</v>
-      </c>
-      <c r="G145" t="s">
-        <v>172</v>
-      </c>
-      <c r="H145" t="s"/>
-      <c r="I145" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>175</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G146" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H146" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I146" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J146" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>142</v>
-      </c>
-      <c r="G147" t="s">
-        <v>159</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
+        <v>162</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G148" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I148" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J148" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>142</v>
-      </c>
-      <c r="G149" t="s">
-        <v>159</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>162</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G150" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H150" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I150" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J150" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>142</v>
-      </c>
-      <c r="G151" t="s">
-        <v>159</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>162</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G152" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I152" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J152" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>142</v>
-      </c>
-      <c r="G153" t="s">
-        <v>159</v>
-      </c>
-      <c r="H153" t="s"/>
-      <c r="I153" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>162</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G154" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H154" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I154" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J154" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>142</v>
-      </c>
-      <c r="G155" t="s">
-        <v>159</v>
-      </c>
-      <c r="H155" t="s"/>
-      <c r="I155" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
+        <v>162</v>
+      </c>
+      <c r="I155" t="s"/>
+      <c r="J155" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G156" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H156" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I156" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J156" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>142</v>
-      </c>
-      <c r="G157" t="s">
-        <v>150</v>
-      </c>
-      <c r="H157" t="s"/>
-      <c r="I157" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G157" t="s"/>
+      <c r="H157" t="s">
+        <v>153</v>
+      </c>
+      <c r="I157" t="s"/>
+      <c r="J157" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G158" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H158" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I158" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J158" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>142</v>
-      </c>
-      <c r="G159" t="s">
-        <v>156</v>
-      </c>
-      <c r="H159" t="s"/>
-      <c r="I159" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G159" t="s"/>
+      <c r="H159" t="s">
+        <v>159</v>
+      </c>
+      <c r="I159" t="s"/>
+      <c r="J159" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G160" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H160" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I160" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J160" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>142</v>
-      </c>
-      <c r="G161" t="s">
-        <v>156</v>
-      </c>
-      <c r="H161" t="s"/>
-      <c r="I161" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G161" t="s"/>
+      <c r="H161" t="s">
+        <v>159</v>
+      </c>
+      <c r="I161" t="s"/>
+      <c r="J161" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G162" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H162" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I162" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J162" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>142</v>
-      </c>
-      <c r="G163" t="s">
-        <v>156</v>
-      </c>
-      <c r="H163" t="s"/>
-      <c r="I163" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G163" t="s"/>
+      <c r="H163" t="s">
+        <v>159</v>
+      </c>
+      <c r="I163" t="s"/>
+      <c r="J163" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G164" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H164" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I164" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J164" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>142</v>
-      </c>
-      <c r="G165" t="s">
-        <v>172</v>
-      </c>
-      <c r="H165" t="s"/>
-      <c r="I165" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G165" t="s"/>
+      <c r="H165" t="s">
+        <v>175</v>
+      </c>
+      <c r="I165" t="s"/>
+      <c r="J165" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G166" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H166" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I166" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J166" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G167" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H167" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I167" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J167" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>142</v>
-      </c>
-      <c r="G168" t="s">
-        <v>150</v>
-      </c>
-      <c r="H168" t="s"/>
-      <c r="I168" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G168" t="s"/>
+      <c r="H168" t="s">
+        <v>153</v>
+      </c>
+      <c r="I168" t="s"/>
+      <c r="J168" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G169" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H169" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I169" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J169" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>142</v>
-      </c>
-      <c r="G170" t="s">
-        <v>156</v>
-      </c>
-      <c r="H170" t="s"/>
-      <c r="I170" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
+        <v>159</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G171" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H171" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I171" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J171" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>142</v>
-      </c>
-      <c r="G172" t="s">
-        <v>159</v>
-      </c>
-      <c r="H172" t="s"/>
-      <c r="I172" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G172" t="s"/>
+      <c r="H172" t="s">
+        <v>162</v>
+      </c>
+      <c r="I172" t="s"/>
+      <c r="J172" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G173" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H173" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I173" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J173" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>142</v>
-      </c>
-      <c r="G174" t="s">
-        <v>159</v>
-      </c>
-      <c r="H174" t="s"/>
-      <c r="I174" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G174" t="s"/>
+      <c r="H174" t="s">
+        <v>162</v>
+      </c>
+      <c r="I174" t="s"/>
+      <c r="J174" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G175" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H175" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I175" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J175" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>142</v>
-      </c>
-      <c r="G176" t="s">
-        <v>159</v>
-      </c>
-      <c r="H176" t="s"/>
-      <c r="I176" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G176" t="s"/>
+      <c r="H176" t="s">
+        <v>162</v>
+      </c>
+      <c r="I176" t="s"/>
+      <c r="J176" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G177" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H177" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I177" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J177" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>142</v>
-      </c>
-      <c r="G178" t="s">
-        <v>162</v>
-      </c>
-      <c r="H178" t="s"/>
-      <c r="I178" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G178" t="s"/>
+      <c r="H178" t="s">
+        <v>165</v>
+      </c>
+      <c r="I178" t="s"/>
+      <c r="J178" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G179" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H179" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I179" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J179" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>142</v>
-      </c>
-      <c r="G180" t="s">
-        <v>162</v>
-      </c>
-      <c r="H180" t="s"/>
-      <c r="I180" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G180" t="s"/>
+      <c r="H180" t="s">
+        <v>165</v>
+      </c>
+      <c r="I180" t="s"/>
+      <c r="J180" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G181" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H181" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I181" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J181" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>142</v>
-      </c>
-      <c r="G182" t="s">
-        <v>162</v>
-      </c>
-      <c r="H182" t="s"/>
-      <c r="I182" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G182" t="s"/>
+      <c r="H182" t="s">
+        <v>165</v>
+      </c>
+      <c r="I182" t="s"/>
+      <c r="J182" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G183" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H183" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I183" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J183" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>142</v>
-      </c>
-      <c r="G184" t="s">
-        <v>162</v>
-      </c>
-      <c r="H184" t="s"/>
-      <c r="I184" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G184" t="s"/>
+      <c r="H184" t="s">
+        <v>165</v>
+      </c>
+      <c r="I184" t="s"/>
+      <c r="J184" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G185" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H185" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I185" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J185" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>142</v>
-      </c>
-      <c r="G186" t="s">
-        <v>172</v>
-      </c>
-      <c r="H186" t="s"/>
-      <c r="I186" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G186" t="s"/>
+      <c r="H186" t="s">
+        <v>175</v>
+      </c>
+      <c r="I186" t="s"/>
+      <c r="J186" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G187" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H187" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I187" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J187" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>142</v>
-      </c>
-      <c r="G188" t="s">
-        <v>172</v>
-      </c>
-      <c r="H188" t="s"/>
-      <c r="I188" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G188" t="s"/>
+      <c r="H188" t="s">
+        <v>175</v>
+      </c>
+      <c r="I188" t="s"/>
+      <c r="J188" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G189" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H189" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I189" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J189" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>142</v>
-      </c>
-      <c r="G190" t="s">
-        <v>172</v>
-      </c>
-      <c r="H190" t="s"/>
-      <c r="I190" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G190" t="s"/>
+      <c r="H190" t="s">
+        <v>175</v>
+      </c>
+      <c r="I190" t="s"/>
+      <c r="J190" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G191" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H191" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I191" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J191" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>142</v>
-      </c>
-      <c r="G192" t="s">
-        <v>172</v>
-      </c>
-      <c r="H192" t="s"/>
-      <c r="I192" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G192" t="s"/>
+      <c r="H192" t="s">
+        <v>175</v>
+      </c>
+      <c r="I192" t="s"/>
+      <c r="J192" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G193" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H193" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I193" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J193" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G194" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H194" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I194" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J194" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>142</v>
-      </c>
-      <c r="G195" t="s">
-        <v>162</v>
-      </c>
-      <c r="H195" t="s"/>
-      <c r="I195" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G195" t="s"/>
+      <c r="H195" t="s">
+        <v>165</v>
+      </c>
+      <c r="I195" t="s"/>
+      <c r="J195" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G196" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H196" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I196" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J196" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>142</v>
-      </c>
-      <c r="G197" t="s">
-        <v>162</v>
-      </c>
-      <c r="H197" t="s"/>
-      <c r="I197" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G197" t="s"/>
+      <c r="H197" t="s">
+        <v>165</v>
+      </c>
+      <c r="I197" t="s"/>
+      <c r="J197" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F198" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G198" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H198" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I198" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J198" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F199" t="s">
-        <v>142</v>
-      </c>
-      <c r="G199" t="s">
-        <v>162</v>
-      </c>
-      <c r="H199" t="s"/>
-      <c r="I199" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G199" t="s"/>
+      <c r="H199" t="s">
+        <v>165</v>
+      </c>
+      <c r="I199" t="s"/>
+      <c r="J199" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F200" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G200" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H200" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I200" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J200" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F201" t="s">
-        <v>142</v>
-      </c>
-      <c r="G201" t="s">
-        <v>172</v>
-      </c>
-      <c r="H201" t="s"/>
-      <c r="I201" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G201" t="s"/>
+      <c r="H201" t="s">
+        <v>175</v>
+      </c>
+      <c r="I201" t="s"/>
+      <c r="J201" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E202" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F202" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G202" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H202" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I202" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J202" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E203" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F203" t="s">
-        <v>142</v>
-      </c>
-      <c r="G203" t="s">
-        <v>159</v>
-      </c>
-      <c r="H203" t="s"/>
-      <c r="I203" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G203" t="s"/>
+      <c r="H203" t="s">
+        <v>162</v>
+      </c>
+      <c r="I203" t="s"/>
+      <c r="J203" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E204" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F204" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G204" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H204" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I204" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J204" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E205" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F205" t="s">
-        <v>142</v>
-      </c>
-      <c r="G205" t="s">
-        <v>159</v>
-      </c>
-      <c r="H205" t="s"/>
-      <c r="I205" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G205" t="s"/>
+      <c r="H205" t="s">
+        <v>162</v>
+      </c>
+      <c r="I205" t="s"/>
+      <c r="J205" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E206" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F206" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G206" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H206" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I206" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J206" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E207" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F207" t="s">
-        <v>142</v>
-      </c>
-      <c r="G207" t="s">
-        <v>150</v>
-      </c>
-      <c r="H207" t="s"/>
-      <c r="I207" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G207" t="s"/>
+      <c r="H207" t="s">
+        <v>153</v>
+      </c>
+      <c r="I207" t="s"/>
+      <c r="J207" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E208" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F208" t="s">
-        <v>142</v>
-      </c>
-      <c r="G208" t="s">
-        <v>159</v>
-      </c>
-      <c r="H208" t="s"/>
-      <c r="I208" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G208" t="s"/>
+      <c r="H208" t="s">
+        <v>162</v>
+      </c>
+      <c r="I208" t="s"/>
+      <c r="J208" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E209" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F209" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G209" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H209" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I209" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J209" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E210" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F210" t="s">
-        <v>142</v>
-      </c>
-      <c r="G210" t="s">
-        <v>159</v>
-      </c>
-      <c r="H210" t="s"/>
-      <c r="I210" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G210" t="s"/>
+      <c r="H210" t="s">
+        <v>162</v>
+      </c>
+      <c r="I210" t="s"/>
+      <c r="J210" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E211" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F211" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G211" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H211" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I211" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J211" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E212" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F212" t="s">
-        <v>142</v>
-      </c>
-      <c r="G212" t="s">
-        <v>159</v>
-      </c>
-      <c r="H212" t="s"/>
-      <c r="I212" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G212" t="s"/>
+      <c r="H212" t="s">
+        <v>162</v>
+      </c>
+      <c r="I212" t="s"/>
+      <c r="J212" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E213" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F213" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G213" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H213" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I213" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J213" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E214" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F214" t="s">
-        <v>142</v>
-      </c>
-      <c r="G214" t="s">
-        <v>159</v>
-      </c>
-      <c r="H214" t="s"/>
-      <c r="I214" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G214" t="s"/>
+      <c r="H214" t="s">
+        <v>162</v>
+      </c>
+      <c r="I214" t="s"/>
+      <c r="J214" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E215" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F215" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G215" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H215" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I215" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J215" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E216" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F216" t="s">
-        <v>142</v>
-      </c>
-      <c r="G216" t="s">
-        <v>159</v>
-      </c>
-      <c r="H216" t="s"/>
-      <c r="I216" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G216" t="s"/>
+      <c r="H216" t="s">
+        <v>162</v>
+      </c>
+      <c r="I216" t="s"/>
+      <c r="J216" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D217" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E217" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F217" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G217" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H217" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I217" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J217" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C218" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D218" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E218" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F218" t="s">
-        <v>142</v>
-      </c>
-      <c r="G218" t="s">
-        <v>159</v>
-      </c>
-      <c r="H218" t="s"/>
-      <c r="I218" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G218" t="s"/>
+      <c r="H218" t="s">
+        <v>162</v>
+      </c>
+      <c r="I218" t="s"/>
+      <c r="J218" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C219" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D219" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E219" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F219" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G219" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H219" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I219" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J219" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10">
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C220" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D220" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E220" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F220" t="s">
-        <v>142</v>
-      </c>
-      <c r="G220" t="s">
-        <v>159</v>
-      </c>
-      <c r="H220" t="s"/>
-      <c r="I220" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G220" t="s"/>
+      <c r="H220" t="s">
+        <v>162</v>
+      </c>
+      <c r="I220" t="s"/>
+      <c r="J220" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10">
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C221" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D221" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E221" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F221" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G221" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H221" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I221" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J221" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10">
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C222" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D222" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E222" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F222" t="s">
-        <v>142</v>
-      </c>
-      <c r="G222" t="s">
-        <v>159</v>
-      </c>
-      <c r="H222" t="s"/>
-      <c r="I222" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G222" t="s"/>
+      <c r="H222" t="s">
+        <v>162</v>
+      </c>
+      <c r="I222" t="s"/>
+      <c r="J222" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10">
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C223" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D223" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E223" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F223" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G223" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H223" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I223" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J223" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10">
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C224" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D224" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E224" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F224" t="s">
-        <v>142</v>
-      </c>
-      <c r="G224" t="s">
-        <v>150</v>
-      </c>
-      <c r="H224" t="s"/>
-      <c r="I224" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G224" t="s"/>
+      <c r="H224" t="s">
+        <v>153</v>
+      </c>
+      <c r="I224" t="s"/>
+      <c r="J224" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10">
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C225" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D225" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E225" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F225" t="s">
-        <v>142</v>
-      </c>
-      <c r="G225" t="s">
-        <v>159</v>
-      </c>
-      <c r="H225" t="s"/>
-      <c r="I225" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G225" t="s"/>
+      <c r="H225" t="s">
+        <v>162</v>
+      </c>
+      <c r="I225" t="s"/>
+      <c r="J225" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10">
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C226" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D226" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E226" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F226" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G226" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H226" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I226" t="s">
-        <v>252</v>
+        <v>16</v>
+      </c>
+      <c r="J226" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
